--- a/products analysis/reference compounds analysis/raw CP reference matches sample99_2.xlsx
+++ b/products analysis/reference compounds analysis/raw CP reference matches sample99_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC5CD542-9843-4228-80BD-03F93A4F24D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7CA1475E-266C-4345-953A-AA06B75837C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>mzref</t>
   </si>
@@ -603,6 +603,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All CPs - Sample</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 99</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2216,156 +2276,6 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5.4261523008000152E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0040835232800466E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0232531616799888E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.1311209648800186E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.10042422800080016</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.11503891093280019</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15523060731680002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.1954223037008003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.2100369866327999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.25022868301680018</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.29042037940080001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.30503506233280003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.34522675871679992</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.38541845510080019</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.40003313803279977</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.42561015148480003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.44022483441680005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.48041653080080032</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.5206082271848006</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53522291011679979</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.57541460650080001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.61560630288480034</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.63022098581680031</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.67041268220079975</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.71060437858480008</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.76433207986880047</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.76541075790080038</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.80560245428479971</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.85933015556880021</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.86040883360080012</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.90060052998480034</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.95432823126880073</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.99451992765280017</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.99559860568480008</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.0493263069687997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.0895180033528007</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.0905966813847998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1443243826688001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1845160790527995</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.2393224583687998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2795141547528002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.3343205340688005</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.3745122304527999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.4695103061528005</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.5097020025368</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.5645083818528003</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.6047000782368004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.6996981539368001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7946962296367999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.9298860017207999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.0248840774208006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,15 +3072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3498,7 +3408,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,10 +3982,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0040835232800466E-2</v>
-      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4094,10 +4001,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>6.0232531616799888E-2</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4116,10 +4020,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>6.1311209648800186E-2</v>
-      </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4138,10 +4039,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10042422800080016</v>
-      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4160,10 +4058,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="1"/>
-        <v>0.11503891093280019</v>
-      </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4182,10 +4077,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15523060731680002</v>
-      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4204,10 +4096,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1954223037008003</v>
-      </c>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4226,10 +4115,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2100369866327999</v>
-      </c>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4248,10 +4134,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25022868301680018</v>
-      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4270,10 +4153,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.29042037940080001</v>
-      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4292,10 +4172,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.30503506233280003</v>
-      </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4314,10 +4191,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.34522675871679992</v>
-      </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4336,10 +4210,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.38541845510080019</v>
-      </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4358,10 +4229,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.40003313803279977</v>
-      </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4380,10 +4248,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.42561015148480003</v>
-      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4402,10 +4267,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" si="1"/>
-        <v>0.44022483441680005</v>
-      </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4424,10 +4286,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="1"/>
-        <v>0.48041653080080032</v>
-      </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -4446,10 +4305,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5206082271848006</v>
-      </c>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -4468,10 +4324,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G44" s="2">
-        <f t="shared" si="1"/>
-        <v>0.53522291011679979</v>
-      </c>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -4490,10 +4343,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57541460650080001</v>
-      </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -4512,10 +4362,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.61560630288480034</v>
-      </c>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -4534,10 +4381,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63022098581680031</v>
-      </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -4556,10 +4400,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G48" s="2">
-        <f t="shared" si="1"/>
-        <v>0.67041268220079975</v>
-      </c>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -4578,10 +4419,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="1"/>
-        <v>0.71060437858480008</v>
-      </c>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -4600,10 +4438,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="1"/>
-        <v>0.76433207986880047</v>
-      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -4622,10 +4457,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="1"/>
-        <v>0.76541075790080038</v>
-      </c>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -4644,10 +4476,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80560245428479971</v>
-      </c>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -4666,10 +4495,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="1"/>
-        <v>0.85933015556880021</v>
-      </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -4688,10 +4514,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="1"/>
-        <v>0.86040883360080012</v>
-      </c>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -4710,10 +4533,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G55" s="2">
-        <f t="shared" si="1"/>
-        <v>0.90060052998480034</v>
-      </c>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -4732,10 +4552,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95432823126880073</v>
-      </c>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -4754,10 +4571,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G57" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99451992765280017</v>
-      </c>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -4776,10 +4590,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G58" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99559860568480008</v>
-      </c>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -4798,10 +4609,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0493263069687997</v>
-      </c>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4820,10 +4628,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0895180033528007</v>
-      </c>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -4842,10 +4647,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G61" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0905966813847998</v>
-      </c>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -4864,10 +4666,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1443243826688001</v>
-      </c>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -4886,10 +4685,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G63" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1845160790527995</v>
-      </c>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -4908,10 +4704,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2393224583687998</v>
-      </c>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -4930,10 +4723,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G65" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2795141547528002</v>
-      </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -4952,10 +4742,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3343205340688005</v>
-      </c>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -4974,10 +4761,7 @@
         <f t="shared" ref="E67:E75" si="3">D67-C67</f>
         <v>0</v>
       </c>
-      <c r="G67" s="2">
-        <f t="shared" ref="G67:G75" si="4">((A67*$M$1)+$M$2)*10^6</f>
-        <v>1.3745122304527999</v>
-      </c>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -4996,10 +4780,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G68" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4695103061528005</v>
-      </c>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -5018,10 +4799,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G69" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5097020025368</v>
-      </c>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -5040,10 +4818,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G70" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5645083818528003</v>
-      </c>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -5062,10 +4837,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G71" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6047000782368004</v>
-      </c>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -5084,10 +4856,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6996981539368001</v>
-      </c>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -5106,10 +4875,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G73" s="2">
-        <f t="shared" si="4"/>
-        <v>1.7946962296367999</v>
-      </c>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -5128,10 +4894,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G74" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9298860017207999</v>
-      </c>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -5150,10 +4913,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G75" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0248840774208006</v>
-      </c>
+      <c r="G75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/products analysis/reference compounds analysis/raw CP reference matches sample99_2.xlsx
+++ b/products analysis/reference compounds analysis/raw CP reference matches sample99_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7CA1475E-266C-4345-953A-AA06B75837C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11949299-3AEB-49BF-8418-622D699BDEBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>mzref</t>
   </si>
@@ -44,6 +44,36 @@
   </si>
   <si>
     <t>linear fit line</t>
+  </si>
+  <si>
+    <t>mzshiftcal_singlepluslinear_manual</t>
+  </si>
+  <si>
+    <t>mzmatchcal_singlepluslinear_manual</t>
+  </si>
+  <si>
+    <t>ppm diff</t>
+  </si>
+  <si>
+    <t>mzmatch_singlepluslinearto500</t>
+  </si>
+  <si>
+    <t>mzshiftcal_singlepluslinearto500_manual</t>
+  </si>
+  <si>
+    <t>mz</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>+1 ppm line</t>
+  </si>
+  <si>
+    <t>-1 ppm line</t>
+  </si>
+  <si>
+    <t>exists</t>
   </si>
 </sst>
 </file>
@@ -186,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +396,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -527,10 +563,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -670,1281 +708,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Raw Data</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'raw CP reference matches sample'!$A$2:$A$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>348.94374160000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>362.9593916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>376.9750416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>382.90476960000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>390.99069159999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>396.9204196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>410.9360696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>418.86284760000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>424.95171959999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>432.8784976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>446.8941476</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>452.82387560000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>452.98301959999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>460.90979759999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>461.06894160000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>466.8395256</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>466.99866960000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>474.92544759999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>480.8551756</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>481.01431960000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.94109759999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>494.87082559999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>495.02996960000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500.8005536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>502.95674760000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>508.88647559999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>509.04561960000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>514.81620359999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>516.97239760000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>522.90212559999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>528.83185360000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>530.98804759999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>536.91777560000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>542.84750359999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>545.00369760000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>550.93342559999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>556.86315360000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>559.01934759999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>562.79288159999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>564.94907560000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>570.87880359999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>576.80853160000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>578.96472559999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>584.89445360000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>590.82418159999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>592.9803756</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>598.91010359999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>604.83983160000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>612.76660960000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>612.92575360000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>618.85548159999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>626.78225959999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>626.94140359999994</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>632.87113160000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>640.79790960000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>646.72763759999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>646.88678159999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>654.81355959999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>660.74328760000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>660.9024316</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>668.82920960000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>674.75893759999997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>682.84485959999995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>688.77458760000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>696.8605096</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>702.79023759999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>716.80588760000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>722.73561559999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>730.82153760000006</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>736.75126560000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>750.76691559999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>764.7825656</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>784.7279436</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>798.74359360000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'raw CP reference matches sample'!$C$2:$C$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>-1.00792013140046</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.449318515453352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.90369978918595895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0751755434877299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85994894119619303</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.4077385003662499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9.5542157567065807E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.27614386647537997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.8688240628545398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.95944846343847601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9.7553512349018406E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.2749264584781002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7121304377645501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9807230729770099E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.1232258938203801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.16832018566929899</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.87602380859740403</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76678893493967104</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-8.8474371347670694E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.42985661559993799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-5.5310055721472899E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.66519410567732595</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.125999315891443</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.70324200291707195</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.22482751487663299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.02142516657586</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84751812805092197</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.7964094989556101E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.03449823192662</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.28315229605686898</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.35656123257575101</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.134703185000557</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.66335372465404596</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.39340871251234399</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.60682214441270299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.41599428467477201</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.33883577140596799</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.7285895944299798</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-6.20482483497257E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.0724018305968098E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.56859020105903402</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.213563339416559</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.21761364618714399</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.13275899523791801</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.2878265958869903E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.157087829261844</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.49555120753398901</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.18173457960633299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-1.30799315551996</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.54301157895206198</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-2.0764136933311E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-5.2709692191889299E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.296288405486061</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.229518240736199</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.18581935816511699</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5463933414556601</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.31812454366694</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-3.3600928676159603E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.45964688468129999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-1.7028953177328401</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.29475130333352301</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.9224656381136098E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.105444659482285</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.38912917291428E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-5.1613180837243797E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.108805136104397</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-5.6405830302051999E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.73252171314460401</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.25656379041838101</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.226626264937136</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.25569478816751001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.28369787343134101</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.34005316227502402</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.91983621175902197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-245C-42C1-94E5-1989E4A3410C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Calibrated Data</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'raw CP reference matches sample'!$A$2:$A$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>348.94374160000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>362.9593916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>376.9750416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>382.90476960000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>390.99069159999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>396.9204196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>410.9360696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>418.86284760000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>424.95171959999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>432.8784976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>446.8941476</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>452.82387560000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>452.98301959999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>460.90979759999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>461.06894160000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>466.8395256</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>466.99866960000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>474.92544759999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>480.8551756</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>481.01431960000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.94109759999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>494.87082559999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>495.02996960000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500.8005536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>502.95674760000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>508.88647559999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>509.04561960000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>514.81620359999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>516.97239760000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>522.90212559999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>528.83185360000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>530.98804759999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>536.91777560000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>542.84750359999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>545.00369760000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>550.93342559999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>556.86315360000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>559.01934759999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>562.79288159999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>564.94907560000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>570.87880359999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>576.80853160000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>578.96472559999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>584.89445360000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>590.82418159999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>592.9803756</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>598.91010359999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>604.83983160000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>612.76660960000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>612.92575360000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>618.85548159999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>626.78225959999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>626.94140359999994</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>632.87113160000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>640.79790960000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>646.72763759999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>646.88678159999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>654.81355959999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>660.74328760000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>660.9024316</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>668.82920960000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>674.75893759999997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>682.84485959999995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>688.77458760000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>696.8605096</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>702.79023759999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>716.80588760000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>722.73561559999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>730.82153760000006</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>736.75126560000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>750.76691559999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>764.7825656</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>784.7279436</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>798.74359360000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'raw CP reference matches sample'!$D$2:$D$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>4.1564051410288197E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.112999039156324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.4161364693084407E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.27817376790576898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.09134931095125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.715765526534899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.158081348722695</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.233863282879158</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.3661244924749201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.53645339723586305</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.9265354428643801E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.9379568355251999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.38690094533147</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.14882758860304399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.85847088326515</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7791602974417601E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.67997885101022704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95956178979016304</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8456062901771899E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.55674505480639502</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.1055977688913897E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.72686187137759595</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-6.4351375364409297E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.70324200291707195</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.22482751487663299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.02142516657586</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84751812805092197</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.7964094989556101E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.03449823192662</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.28315229605686898</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.35656123257575101</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.134703185000557</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.66335372465404596</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.39340871251234399</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.60682214441270299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.41599428467477201</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.33883577140596799</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.7285895944299798</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-6.20482483497257E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.0724018305968098E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.56859020105903402</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.213563339416559</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.21761364618714399</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.13275899523791801</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.2878265958869903E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.157087829261844</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.49555120753398901</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.18173457960633299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-1.30799315551996</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.54301157895206198</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-2.0764136933311E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-5.2709692191889299E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.296288405486061</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.229518240736199</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.18581935816511699</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5463933414556601</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.31812454366694</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-3.3600928676159603E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.45964688468129999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-1.7028953177328401</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.29475130333352301</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.9224656381136098E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.105444659482285</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.38912917291428E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-5.1613180837243797E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.108805136104397</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-5.6405830302051999E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.73252171314460401</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.25656379041838101</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.226626264937136</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.25569478816751001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.28369787343134101</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.34005316227502402</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.91983621175902197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-245C-42C1-94E5-1989E4A3410C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>singlepluslinear</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'raw CP reference matches sample'!$A$2:$A$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-                <c:pt idx="0">
-                  <c:v>348.94374160000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>362.9593916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>376.9750416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>382.90476960000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>390.99069159999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>396.9204196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>410.9360696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>418.86284760000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>424.95171959999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>432.8784976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>446.8941476</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>452.82387560000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>452.98301959999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>460.90979759999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>461.06894160000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>466.8395256</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>466.99866960000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>474.92544759999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>480.8551756</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>481.01431960000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>488.94109759999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>494.87082559999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>495.02996960000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500.8005536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>502.95674760000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>508.88647559999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>509.04561960000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>514.81620359999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>516.97239760000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>522.90212559999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>528.83185360000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>530.98804759999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>536.91777560000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>542.84750359999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>545.00369760000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>550.93342559999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>556.86315360000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>559.01934759999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>562.79288159999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>564.94907560000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>570.87880359999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>576.80853160000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>578.96472559999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>584.89445360000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>590.82418159999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>592.9803756</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>598.91010359999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>604.83983160000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>612.76660960000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>612.92575360000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>618.85548159999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>626.78225959999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>626.94140359999994</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>632.87113160000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>640.79790960000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>646.72763759999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>646.88678159999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>654.81355959999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>660.74328760000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>660.9024316</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>668.82920960000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>674.75893759999997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>682.84485959999995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>688.77458760000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>696.8605096</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>702.79023759999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>716.80588760000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>722.73561559999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>730.82153760000006</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>736.75126560000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>750.76691559999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>764.7825656</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>784.7279436</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>798.74359360000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'raw CP reference matches sample'!$F$2:$F$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-245C-42C1-94E5-1989E4A3410C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
           <c:tx>
             <c:v>linear fit line</c:v>
           </c:tx>
@@ -1970,10 +735,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$A$2:$A$75</c:f>
+              <c:f>'raw CP reference matches sample'!$A$2:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>348.94374160000001</c:v>
                 </c:pt>
@@ -2140,60 +905,54 @@
                   <c:v>640.79790960000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>646.72763759999998</c:v>
+                  <c:v>646.88678159999995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>646.88678159999995</c:v>
+                  <c:v>654.81355959999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>654.81355959999996</c:v>
+                  <c:v>660.74328760000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>660.74328760000003</c:v>
+                  <c:v>668.82920960000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>660.9024316</c:v>
+                  <c:v>674.75893759999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>668.82920960000001</c:v>
+                  <c:v>682.84485959999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>674.75893759999997</c:v>
+                  <c:v>688.77458760000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>682.84485959999995</c:v>
+                  <c:v>696.8605096</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>688.77458760000002</c:v>
+                  <c:v>702.79023759999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>696.8605096</c:v>
+                  <c:v>716.80588760000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>702.79023759999995</c:v>
+                  <c:v>722.73561559999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>716.80588760000001</c:v>
+                  <c:v>730.82153760000006</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>722.73561559999996</c:v>
+                  <c:v>736.75126560000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>730.82153760000006</c:v>
+                  <c:v>750.76691559999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>736.75126560000001</c:v>
+                  <c:v>764.7825656</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>750.76691559999995</c:v>
+                  <c:v>784.7279436</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>764.7825656</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>784.7279436</c:v>
-                </c:pt>
-                <c:pt idx="73">
                   <c:v>798.74359360000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -2201,10 +960,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$G$2:$G$75</c:f>
+              <c:f>'raw CP reference matches sample'!$O$2:$O$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>-1.0238593194351999</c:v>
                 </c:pt>
@@ -2276,6 +1035,150 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5.4261523008000152E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0040835232800466E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0232531616799888E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1311209648800186E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10042422800080016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11503891093280019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15523060731680002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1954223037008003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2100369866327999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25022868301680018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29042037940080001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30503506233280003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34522675871679992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38541845510080019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40003313803279977</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42561015148480003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.44022483441680005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48041653080080032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5206082271848006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53522291011679979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57541460650080001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61560630288480034</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63022098581680031</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67041268220079975</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.71060437858480008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76433207986880047</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76541075790080038</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.80560245428479971</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.85933015556880021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.86040883360080012</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.90060052998480034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95432823126880073</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99559860568480008</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0493263069687997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0895180033528007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1443243826688001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1845160790527995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2393224583687998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2795141547528002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3343205340688005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3745122304527999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4695103061528005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5097020025368</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5645083818528003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6047000782368004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6996981539368001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7946962296367999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9298860017207999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0248840774208006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,6 +1187,1605 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-245C-42C1-94E5-1989E4A3410C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cal - Curve plus linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$A$2:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>348.94374160000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362.9593916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376.9750416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.90476960000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.99069159999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.9204196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.9360696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>418.86284760000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424.95171959999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>432.8784976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446.8941476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>452.82387560000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>452.98301959999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460.90979759999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.06894160000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>466.8395256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>466.99866960000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>474.92544759999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.8551756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>481.01431960000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>488.94109759999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>494.87082559999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>495.02996960000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>500.8005536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>502.95674760000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>508.88647559999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>509.04561960000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>514.81620359999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>516.97239760000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>522.90212559999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>528.83185360000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>530.98804759999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>536.91777560000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>542.84750359999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>545.00369760000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>550.93342559999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>556.86315360000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>559.01934759999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>562.79288159999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564.94907560000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>570.87880359999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>576.80853160000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>578.96472559999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>584.89445360000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>590.82418159999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>592.9803756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>598.91010359999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>604.83983160000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>612.76660960000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>612.92575360000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>618.85548159999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>626.78225959999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>626.94140359999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>632.87113160000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640.79790960000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>646.88678159999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>654.81355959999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>660.74328760000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>668.82920960000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>674.75893759999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>682.84485959999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>688.77458760000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>696.8605096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>702.79023759999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>716.80588760000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>722.73561559999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>730.82153760000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>736.75126560000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>750.76691559999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>764.7825656</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>784.7279436</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>798.74359360000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$M$2:$M$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>4.1564052550597898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4755600432671992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.41613636375664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27817376656969084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5624163109515912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.71576552624847634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58455431583059492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30672144761549858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3661244927424518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.53645339815506732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24388727750724781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9379568355252046</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0489816745556473</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31465365626019837</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8584708830185748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7791603461466523E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.67997885149711024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95956178871296094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8456063138198292E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55674505527909113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1055982339242483E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72686187057353935</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.4351374560611643E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.70324200212253618</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.22482751566776268</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.0813944905034514</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78756755100721632</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.0593082937622892E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1525609311888991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.39987615983412816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.58739133796560472</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.36459595429944525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.89070755474648666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.73071424916550409</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27085108709885963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3639303497437145E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.9585452280780085E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.1653197828360757</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.49585015565293167</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.50287026966160742</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.99624774183267395</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.31551306034382254</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.74471964682710123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.49335557244302808</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.55695238647485135</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.46048899625148149</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.21782145291911145</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.88811347729304835</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.1048401803462071</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.25362854810977137</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.80977104487503104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.92911676595493609</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.57989620052413815</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.63845689555416563</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.1383061774625902</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28025093448698551</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.0589106652451099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.64883486385523403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.89158598556050517</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.2151365076558478</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3568155605873689</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.226706435177142</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.3654017094025113</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.4983555996817917</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.5039353144401051</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.78758161172138375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.8433642726586468</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.8006554151662963</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.9629334195515671</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.119263505633334</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.6044155152448061</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.9065990170480474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-245C-42C1-94E5-1989E4A3410C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cal - Curve plus linear to 500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$A$2:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>348.94374160000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362.9593916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376.9750416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.90476960000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.99069159999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.9204196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.9360696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>418.86284760000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424.95171959999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>432.8784976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446.8941476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>452.82387560000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>452.98301959999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460.90979759999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.06894160000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>466.8395256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>466.99866960000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>474.92544759999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.8551756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>481.01431960000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>488.94109759999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>494.87082559999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>495.02996960000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>500.8005536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>502.95674760000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>508.88647559999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>509.04561960000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>514.81620359999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>516.97239760000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>522.90212559999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>528.83185360000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>530.98804759999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>536.91777560000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>542.84750359999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>545.00369760000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>550.93342559999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>556.86315360000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>559.01934759999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>562.79288159999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564.94907560000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>570.87880359999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>576.80853160000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>578.96472559999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>584.89445360000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>590.82418159999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>592.9803756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>598.91010359999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>604.83983160000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>612.76660960000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>612.92575360000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>618.85548159999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>626.78225959999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>626.94140359999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>632.87113160000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640.79790960000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>646.88678159999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>654.81355959999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>660.74328760000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>668.82920960000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>674.75893759999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>682.84485959999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>688.77458760000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>696.8605096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>702.79023759999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>716.80588760000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>722.73561559999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>730.82153760000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>736.75126560000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>750.76691559999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>764.7825656</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>784.7279436</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>798.74359360000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$E$2:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>4.1564052550597898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4755600432671992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.41613636375664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27817376656969084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5624163109515912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.71576552624847634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58455431583059492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30672144761549858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3661244927424518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.53645339815506732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24388727750724781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9379568355252046</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0489816745556473</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31465365626019837</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8584708830185748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7791603461466523E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.67997885149711024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95956178871296094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8456063138198292E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55674505527909113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1055982339242483E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72686187057353935</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.4351374560611643E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.70324200291707195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.22482751487663299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.02142516657586</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84751812805092197</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7964094989556101E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.03449823192662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.28315229605686898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.35656123257575101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.134703185000557</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.66335372465404596</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.39340871251234399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60682214441270299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41599428467477201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33883577140596799</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.7285895944299798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.20482483497257E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.0724018305968098E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.56859020105903402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.213563339416559</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.21761364618714399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13275899523791801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2878265958869903E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.157087829261844</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49555120753398901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.18173457960633299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.30799315551996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54301157895206198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.0764136933311E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5.2709692191889299E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.296288405486061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.229518240736199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.18581935816511699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.31812454366694</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.3600928676159603E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45964688468129999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.29475130333352301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.9224656381136098E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.105444659482285</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.38912917291428E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5.1613180837243797E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.108805136104397</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5.6405830302051999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.73252171314460401</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.25656379041838101</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.226626264937136</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.25569478816751001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.28369787343134101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34005316227502402</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.91983621175902197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-245C-42C1-94E5-1989E4A3410C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raw Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$A$2:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>348.94374160000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362.9593916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376.9750416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.90476960000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.99069159999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.9204196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.9360696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>418.86284760000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424.95171959999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>432.8784976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446.8941476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>452.82387560000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>452.98301959999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460.90979759999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>461.06894160000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>466.8395256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>466.99866960000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>474.92544759999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.8551756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>481.01431960000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>488.94109759999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>494.87082559999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>495.02996960000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>500.8005536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>502.95674760000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>508.88647559999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>509.04561960000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>514.81620359999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>516.97239760000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>522.90212559999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>528.83185360000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>530.98804759999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>536.91777560000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>542.84750359999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>545.00369760000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>550.93342559999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>556.86315360000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>559.01934759999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>562.79288159999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564.94907560000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>570.87880359999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>576.80853160000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>578.96472559999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>584.89445360000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>590.82418159999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>592.9803756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>598.91010359999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>604.83983160000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>612.76660960000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>612.92575360000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>618.85548159999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>626.78225959999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>626.94140359999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>632.87113160000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640.79790960000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>646.88678159999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>654.81355959999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>660.74328760000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>668.82920960000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>674.75893759999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>682.84485959999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>688.77458760000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>696.8605096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>702.79023759999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>716.80588760000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>722.73561559999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>730.82153760000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>736.75126560000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>750.76691559999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>764.7825656</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>784.7279436</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>798.74359360000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$C$2:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>-1.00792013140046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.449318515453352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.90369978918595895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0751755434877299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85994894119619303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4077385003662499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.5542157567065807E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.27614386647537997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8688240628545398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.95944846343847601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.7553512349018406E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2749264584781002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7121304377645501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9807230729770099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.1232258938203801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.16832018566929899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.87602380859740403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76678893493967104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.8474371347670694E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42985661559993799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.5310055721472899E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66519410567732595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.125999315891443</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.70324200291707195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.22482751487663299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.02142516657586</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84751812805092197</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7964094989556101E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.03449823192662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.28315229605686898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.35656123257575101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.134703185000557</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.66335372465404596</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.39340871251234399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60682214441270299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41599428467477201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33883577140596799</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.7285895944299798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.20482483497257E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.0724018305968098E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.56859020105903402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.213563339416559</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.21761364618714399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13275899523791801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2878265958869903E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.157087829261844</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49555120753398901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.18173457960633299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.30799315551996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54301157895206198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.0764136933311E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5.2709692191889299E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.296288405486061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.229518240736199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.18581935816511699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.31812454366694</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.3600928676159603E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45964688468129999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.29475130333352301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.9224656381136098E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.105444659482285</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.38912917291428E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5.1613180837243797E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.108805136104397</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5.6405830302051999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.73252171314460401</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.25656379041838101</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.226626264937136</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.25569478816751001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.28369787343134101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34005316227502402</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.91983621175902197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-245C-42C1-94E5-1989E4A3410C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw CP reference matches sample'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>+1 ppm line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$W$3:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$X$3:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-245C-42C1-94E5-1989E4A3410C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw CP reference matches sample'!$W$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-1 ppm line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$W$9:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'raw CP reference matches sample'!$X$9:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-245C-42C1-94E5-1989E4A3410C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2366,6 +2868,8 @@
         <c:axId val="1648599552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2383,7 +2887,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2435,7 +2939,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -3071,16 +3579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3405,16 +3913,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3423,24 +3935,48 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1">
+      <c r="U1" s="1">
         <v>6.7780000000000004E-9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="W1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>348.94374160000001</v>
       </c>
       <c r="B2">
@@ -3449,26 +3985,56 @@
       <c r="C2">
         <v>-1.00792013140046</v>
       </c>
-      <c r="D2">
-        <v>4.1564051410288197E-2</v>
-      </c>
       <c r="E2">
-        <f>C2-D2</f>
-        <v>-1.0494841828107482</v>
-      </c>
-      <c r="G2" s="2">
-        <f>((A2*$M$1)+$M$2)*10^6</f>
+        <v>4.1564052550597898E-2</v>
+      </c>
+      <c r="F2">
+        <f>C2-E2</f>
+        <v>-1.0494841839510578</v>
+      </c>
+      <c r="G2">
+        <v>348.94375610351602</v>
+      </c>
+      <c r="H2">
+        <f>(G2-A2)/A2*10^6</f>
+        <v>4.1564052550597898E-2</v>
+      </c>
+      <c r="I2">
+        <f>H2-C2</f>
+        <v>1.0494841839510578</v>
+      </c>
+      <c r="J2">
         <v>-1.0238593194351999</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>348.94375609999997</v>
+      </c>
+      <c r="M2">
+        <v>4.1564052550597898E-2</v>
+      </c>
+      <c r="N2">
+        <f>M2-C2</f>
+        <v>1.0494841839510578</v>
+      </c>
+      <c r="O2" s="2">
+        <f>((A2*$U$1)+$U$2)*10^6</f>
+        <v>-1.0238593194351999</v>
+      </c>
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1">
+      <c r="U2" s="1">
         <v>-3.3890000000000001E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="W2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>362.9593916</v>
       </c>
       <c r="B3">
@@ -3477,20 +4043,50 @@
       <c r="C3">
         <v>-0.449318515453352</v>
       </c>
-      <c r="D3">
-        <v>-0.112999039156324</v>
-      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E24" si="0">C3-D3</f>
-        <v>-0.33631947629702796</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="1">((A3*$M$1)+$M$2)*10^6</f>
+        <v>0.4755600432671992</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F24" si="0">C3-E3</f>
+        <v>-0.92487855872055125</v>
+      </c>
+      <c r="G3">
+        <v>362.95956420898398</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H64" si="1">(G3-A3)/A3*10^6</f>
+        <v>0.4755600432671992</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I64" si="2">H3-C3</f>
+        <v>0.92487855872055125</v>
+      </c>
+      <c r="J3">
         <v>-0.92886124373519985</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="L3">
+        <v>362.95935059999999</v>
+      </c>
+      <c r="M3">
+        <v>0.4755600432671992</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N64" si="3">M3-C3</f>
+        <v>0.92487855872055125</v>
+      </c>
+      <c r="O3" s="2">
+        <f>((A3*$U$1)+$U$2)*10^6</f>
+        <v>-0.92886124373519985</v>
+      </c>
+      <c r="W3">
+        <v>300</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>376.9750416</v>
       </c>
       <c r="B4">
@@ -3499,20 +4095,50 @@
       <c r="C4">
         <v>-0.90369978918595895</v>
       </c>
-      <c r="D4">
-        <v>-9.4161364693084407E-2</v>
-      </c>
       <c r="E4">
+        <v>-9.41613636375664E-2</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>-0.8095384244928745</v>
-      </c>
-      <c r="G4" s="2">
+        <v>-0.8095384255483925</v>
+      </c>
+      <c r="G4">
+        <v>376.97500610351602</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
+        <v>-9.41613636375664E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.8095384255483925</v>
+      </c>
+      <c r="J4">
         <v>-0.83386316803520011</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4">
+        <v>376.97500609999997</v>
+      </c>
+      <c r="M4">
+        <v>-9.41613636375664E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0.8095384255483925</v>
+      </c>
+      <c r="O4" s="2">
+        <f>((A4*$U$1)+$U$2)*10^6</f>
+        <v>-0.83386316803520011</v>
+      </c>
+      <c r="W4">
+        <v>800</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>382.90476960000001</v>
       </c>
       <c r="B5">
@@ -3521,20 +4147,44 @@
       <c r="C5">
         <v>-1.0751755434877299</v>
       </c>
-      <c r="D5">
-        <v>-0.27817376790576898</v>
-      </c>
       <c r="E5">
+        <v>-0.27817376656969084</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>-0.79700177558196095</v>
-      </c>
-      <c r="G5" s="2">
+        <v>-0.79700177691803908</v>
+      </c>
+      <c r="G5">
+        <v>382.90466308593801</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
+        <v>-0.27817376656969084</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.79700177691803908</v>
+      </c>
+      <c r="J5">
         <v>-0.79367147165119989</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="L5">
+        <v>382.90466309999999</v>
+      </c>
+      <c r="M5">
+        <v>-0.27817376656969084</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0.79700177691803908</v>
+      </c>
+      <c r="O5" s="2">
+        <f>((A5*$U$1)+$U$2)*10^6</f>
+        <v>-0.79367147165119989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>390.99069159999999</v>
       </c>
       <c r="B6">
@@ -3543,16 +4193,40 @@
       <c r="C6">
         <v>0.85994894119619303</v>
       </c>
-      <c r="D6">
-        <v>-1.09134931095125</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6">
+        <v>1.5624163109515912</v>
+      </c>
+      <c r="G6">
+        <v>390.99130249023398</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
+        <v>1.5624163109515912</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.70246736975539814</v>
+      </c>
+      <c r="J6">
         <v>-0.73886509233520004</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L6">
+        <v>390.9902649</v>
+      </c>
+      <c r="M6">
+        <v>1.5624163109515912</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.70246736975539814</v>
+      </c>
+      <c r="O6" s="2">
+        <f>((A6*$U$1)+$U$2)*10^6</f>
+        <v>-0.73886509233520004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>396.9204196</v>
       </c>
       <c r="B7">
@@ -3561,20 +4235,47 @@
       <c r="C7">
         <v>-1.4077385003662499</v>
       </c>
-      <c r="D7">
-        <v>-0.715765526534899</v>
-      </c>
       <c r="E7">
+        <v>-0.71576552624847634</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>-0.69197297383135092</v>
-      </c>
-      <c r="G7" s="2">
+        <v>-0.69197297411777359</v>
+      </c>
+      <c r="G7">
+        <v>396.92013549804699</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
+        <v>-0.71576552624847634</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.69197297411777359</v>
+      </c>
+      <c r="J7">
         <v>-0.6986733959511997</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="L7">
+        <v>396.92013550000001</v>
+      </c>
+      <c r="M7">
+        <v>-0.71576552624847634</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0.69197297411777359</v>
+      </c>
+      <c r="O7" s="2">
+        <f>((A7*$U$1)+$U$2)*10^6</f>
+        <v>-0.6986733959511997</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>410.9360696</v>
       </c>
       <c r="B8">
@@ -3583,20 +4284,50 @@
       <c r="C8">
         <v>-9.5542157567065807E-3</v>
       </c>
-      <c r="D8">
-        <v>-0.158081348722695</v>
-      </c>
       <c r="E8">
+        <v>0.58455431583059492</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.14852713296598841</v>
-      </c>
-      <c r="G8" s="2">
+        <v>-0.59410853158730148</v>
+      </c>
+      <c r="G8">
+        <v>410.93630981445301</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
+        <v>0.58455431583059492</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.59410853158730148</v>
+      </c>
+      <c r="J8">
         <v>-0.60367532025119996</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L8">
+        <v>410.93600459999999</v>
+      </c>
+      <c r="M8">
+        <v>0.58455431583059492</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.59410853158730148</v>
+      </c>
+      <c r="O8" s="2">
+        <f>((A8*$U$1)+$U$2)*10^6</f>
+        <v>-0.60367532025119996</v>
+      </c>
+      <c r="W8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>418.86284760000001</v>
       </c>
       <c r="B9">
@@ -3605,20 +4336,50 @@
       <c r="C9">
         <v>-0.27614386647537997</v>
       </c>
-      <c r="D9">
-        <v>0.233863282879158</v>
-      </c>
       <c r="E9">
+        <v>0.30672144761549858</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>-0.51000714935453795</v>
-      </c>
-      <c r="G9" s="2">
+        <v>-0.58286531409087861</v>
+      </c>
+      <c r="G9">
+        <v>418.86297607421898</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
+        <v>0.30672144761549858</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.58286531409087861</v>
+      </c>
+      <c r="J9">
         <v>-0.54994761896720001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="L9">
+        <v>418.86294559999999</v>
+      </c>
+      <c r="M9">
+        <v>0.30672144761549858</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0.58286531409087861</v>
+      </c>
+      <c r="O9" s="2">
+        <f>((A9*$U$1)+$U$2)*10^6</f>
+        <v>-0.54994761896720001</v>
+      </c>
+      <c r="W9">
+        <v>300</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>424.95171959999999</v>
       </c>
       <c r="B10">
@@ -3627,20 +4388,50 @@
       <c r="C10">
         <v>-2.8688240628545398</v>
       </c>
-      <c r="D10">
-        <v>-2.3661244924749201</v>
-      </c>
       <c r="E10">
+        <v>-2.3661244927424518</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>-0.50269957037961976</v>
-      </c>
-      <c r="G10" s="2">
+        <v>-0.50269957011208799</v>
+      </c>
+      <c r="G10">
+        <v>424.95071411132801</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
+        <v>-2.3661244927424518</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.50269957011208799</v>
+      </c>
+      <c r="J10">
         <v>-0.50867724455119989</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="L10">
+        <v>424.95071410000003</v>
+      </c>
+      <c r="M10">
+        <v>-2.3661244927424518</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0.50269957011208799</v>
+      </c>
+      <c r="O10" s="2">
+        <f>((A10*$U$1)+$U$2)*10^6</f>
+        <v>-0.50867724455119989</v>
+      </c>
+      <c r="W10">
+        <v>800</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>432.8784976</v>
       </c>
       <c r="B11">
@@ -3649,20 +4440,44 @@
       <c r="C11">
         <v>-0.95944846343847601</v>
       </c>
-      <c r="D11">
-        <v>-0.53645339723586305</v>
-      </c>
       <c r="E11">
+        <v>-0.53645339815506732</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>-0.42299506620261296</v>
-      </c>
-      <c r="G11" s="2">
+        <v>-0.42299506528340869</v>
+      </c>
+      <c r="G11">
+        <v>432.87826538085898</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
+        <v>-0.53645339815506732</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.42299506528340869</v>
+      </c>
+      <c r="J11">
         <v>-0.45494954326719983</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="L11">
+        <v>432.87826539999998</v>
+      </c>
+      <c r="M11">
+        <v>-0.53645339815506732</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0.42299506528340869</v>
+      </c>
+      <c r="O11" s="2">
+        <f>((A11*$U$1)+$U$2)*10^6</f>
+        <v>-0.45494954326719983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>446.8941476</v>
       </c>
       <c r="B12">
@@ -3671,20 +4486,44 @@
       <c r="C12">
         <v>-9.7553512349018406E-2</v>
       </c>
-      <c r="D12">
-        <v>-2.9265354428643801E-2</v>
-      </c>
       <c r="E12">
+        <v>0.24388727750724781</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>-6.8288157920374598E-2</v>
-      </c>
-      <c r="G12" s="2">
+        <v>-0.34144078985626625</v>
+      </c>
+      <c r="G12">
+        <v>446.89425659179699</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
+        <v>0.24388727750724781</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.34144078985626625</v>
+      </c>
+      <c r="J12">
         <v>-0.35995146756720015</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="L12">
+        <v>446.89413450000001</v>
+      </c>
+      <c r="M12">
+        <v>0.24388727750724781</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0.34144078985626625</v>
+      </c>
+      <c r="O12" s="2">
+        <f>((A12*$U$1)+$U$2)*10^6</f>
+        <v>-0.35995146756720015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>452.82387560000001</v>
       </c>
       <c r="B13">
@@ -3693,20 +4532,44 @@
       <c r="C13">
         <v>-2.2749264584781002</v>
       </c>
-      <c r="D13">
-        <v>-1.9379568355251999</v>
-      </c>
       <c r="E13">
+        <v>-1.9379568355252046</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>-0.33696962295290023</v>
-      </c>
-      <c r="G13" s="2">
+        <v>-0.33696962295289556</v>
+      </c>
+      <c r="G13">
+        <v>452.822998046875</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
+        <v>-1.9379568355252046</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.33696962295289556</v>
+      </c>
+      <c r="J13">
         <v>-0.31975977118319987</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="L13">
+        <v>452.82299799999998</v>
+      </c>
+      <c r="M13">
+        <v>-1.9379568355252046</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.33696962295289556</v>
+      </c>
+      <c r="O13" s="2">
+        <f>((A13*$U$1)+$U$2)*10^6</f>
+        <v>-0.31975977118319987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>452.98301959999998</v>
       </c>
       <c r="B14">
@@ -3715,16 +4578,40 @@
       <c r="C14">
         <v>1.7121304377645501</v>
       </c>
-      <c r="D14">
-        <v>-1.38690094533147</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E14">
+        <v>2.0489816745556473</v>
+      </c>
+      <c r="G14">
+        <v>452.98394775390602</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
+        <v>2.0489816745556473</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.33685123679109719</v>
+      </c>
+      <c r="J14">
         <v>-0.31868109315119997</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="L14">
+        <v>452.98239139999998</v>
+      </c>
+      <c r="M14">
+        <v>2.0489816745556473</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0.33685123679109719</v>
+      </c>
+      <c r="O14" s="2">
+        <f>((A14*$U$1)+$U$2)*10^6</f>
+        <v>-0.31868109315119997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>460.90979759999999</v>
       </c>
       <c r="B15">
@@ -3733,20 +4620,44 @@
       <c r="C15">
         <v>4.9807230729770099E-2</v>
       </c>
-      <c r="D15">
-        <v>-0.14882758860304399</v>
-      </c>
       <c r="E15">
+        <v>0.31465365626019837</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.19863481933281407</v>
-      </c>
-      <c r="G15" s="2">
+        <v>-0.26484642553042825</v>
+      </c>
+      <c r="G15">
+        <v>460.90994262695301</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
+        <v>0.31465365626019837</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.26484642553042825</v>
+      </c>
+      <c r="J15">
         <v>-0.26495339186719996</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="L15">
+        <v>460.90972900000003</v>
+      </c>
+      <c r="M15">
+        <v>0.31465365626019837</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0.26484642553042825</v>
+      </c>
+      <c r="O15" s="2">
+        <f>((A15*$U$1)+$U$2)*10^6</f>
+        <v>-0.26495339186719996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>461.06894160000002</v>
       </c>
       <c r="B16">
@@ -3755,20 +4666,47 @@
       <c r="C16">
         <v>-2.1232258938203801</v>
       </c>
-      <c r="D16">
-        <v>-1.85847088326515</v>
+      <c r="D16" t="s">
+        <v>17</v>
       </c>
       <c r="E16">
+        <v>-1.8584708830185748</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>-0.2647550105552301</v>
-      </c>
-      <c r="G16" s="2">
+        <v>-0.2647550108018053</v>
+      </c>
+      <c r="G16">
+        <v>461.06808471679699</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
+        <v>-1.8584708830185748</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.2647550108018053</v>
+      </c>
+      <c r="J16">
         <v>-0.26387471383519967</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="L16">
+        <v>461.06808469999999</v>
+      </c>
+      <c r="M16">
+        <v>-1.8584708830185748</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>0.2647550108018053</v>
+      </c>
+      <c r="O16" s="2">
+        <f>((A16*$U$1)+$U$2)*10^6</f>
+        <v>-0.26387471383519967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>466.8395256</v>
       </c>
       <c r="B17">
@@ -3777,20 +4715,44 @@
       <c r="C17">
         <v>-0.16832018566929899</v>
       </c>
-      <c r="D17">
-        <v>2.7791602974417601E-2</v>
-      </c>
       <c r="E17">
+        <v>2.7791603461466523E-2</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>-0.19611178864371659</v>
-      </c>
-      <c r="G17" s="2">
+        <v>-0.19611178913076552</v>
+      </c>
+      <c r="G17">
+        <v>466.83953857421898</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
+        <v>2.7791603461466523E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.19611178913076552</v>
+      </c>
+      <c r="J17">
         <v>-0.22476169548319971</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="L17">
+        <v>466.83953860000003</v>
+      </c>
+      <c r="M17">
+        <v>2.7791603461466523E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>0.19611178913076552</v>
+      </c>
+      <c r="O17" s="2">
+        <f>((A17*$U$1)+$U$2)*10^6</f>
+        <v>-0.22476169548319971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>466.99866960000003</v>
       </c>
       <c r="B18">
@@ -3799,20 +4761,44 @@
       <c r="C18">
         <v>-0.87602380859740403</v>
       </c>
-      <c r="D18">
-        <v>-0.67997885101022704</v>
-      </c>
       <c r="E18">
+        <v>-0.67997885149711024</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>-0.19604495758717699</v>
-      </c>
-      <c r="G18" s="2">
+        <v>-0.19604495710029379</v>
+      </c>
+      <c r="G18">
+        <v>466.99835205078102</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
+        <v>-0.67997885149711024</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.19604495710029379</v>
+      </c>
+      <c r="J18">
         <v>-0.22368301745119984</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="L18">
+        <v>466.99835209999998</v>
+      </c>
+      <c r="M18">
+        <v>-0.67997885149711024</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0.19604495710029379</v>
+      </c>
+      <c r="O18" s="2">
+        <f>((A18*$U$1)+$U$2)*10^6</f>
+        <v>-0.22368301745119984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>474.92544759999998</v>
       </c>
       <c r="B19">
@@ -3821,20 +4807,44 @@
       <c r="C19">
         <v>0.76678893493967104</v>
       </c>
-      <c r="D19">
-        <v>0.95956178979016304</v>
-      </c>
       <c r="E19">
+        <v>0.95956178871296094</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>-0.192772854850492</v>
-      </c>
-      <c r="G19" s="2">
+        <v>-0.1927728537732899</v>
+      </c>
+      <c r="G19">
+        <v>474.92590332031199</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
+        <v>0.95956178871296094</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.1927728537732899</v>
+      </c>
+      <c r="J19">
         <v>-0.16995531616719983</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="L19">
+        <v>474.92590330000002</v>
+      </c>
+      <c r="M19">
+        <v>0.95956178871296094</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0.1927728537732899</v>
+      </c>
+      <c r="O19" s="2">
+        <f>((A19*$U$1)+$U$2)*10^6</f>
+        <v>-0.16995531616719983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>480.8551756</v>
       </c>
       <c r="B20">
@@ -3843,20 +4853,44 @@
       <c r="C20">
         <v>-8.8474371347670694E-2</v>
       </c>
-      <c r="D20">
-        <v>3.8456062901771899E-2</v>
-      </c>
       <c r="E20">
+        <v>3.8456063138198292E-2</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>-0.12693043424944259</v>
-      </c>
-      <c r="G20" s="2">
+        <v>-0.12693043448586899</v>
+      </c>
+      <c r="G20">
+        <v>480.85519409179699</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
+        <v>3.8456063138198292E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.12693043448586899</v>
+      </c>
+      <c r="J20">
         <v>-0.12976361978319997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="L20">
+        <v>480.85519410000001</v>
+      </c>
+      <c r="M20">
+        <v>3.8456063138198292E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0.12693043448586899</v>
+      </c>
+      <c r="O20" s="2">
+        <f>((A20*$U$1)+$U$2)*10^6</f>
+        <v>-0.12976361978319997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>481.01431960000002</v>
       </c>
       <c r="B21">
@@ -3865,20 +4899,44 @@
       <c r="C21">
         <v>0.42985661559993799</v>
       </c>
-      <c r="D21">
-        <v>0.55674505480639502</v>
-      </c>
       <c r="E21">
+        <v>0.55674505527909113</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>-0.12688843920645704</v>
-      </c>
-      <c r="G21" s="2">
+        <v>-0.12688843967915314</v>
+      </c>
+      <c r="G21">
+        <v>481.01458740234398</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
+        <v>0.55674505527909113</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.12688843967915314</v>
+      </c>
+      <c r="J21">
         <v>-0.12868494175119968</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="L21">
+        <v>481.01458739999998</v>
+      </c>
+      <c r="M21">
+        <v>0.55674505527909113</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0.12688843967915314</v>
+      </c>
+      <c r="O21" s="2">
+        <f>((A21*$U$1)+$U$2)*10^6</f>
+        <v>-0.12868494175119968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>488.94109759999998</v>
       </c>
       <c r="B22">
@@ -3887,20 +4945,44 @@
       <c r="C22">
         <v>-5.5310055721472899E-2</v>
       </c>
-      <c r="D22">
-        <v>7.1055977688913897E-3</v>
-      </c>
       <c r="E22">
+        <v>7.1055982339242483E-3</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>-6.2415653490364292E-2</v>
-      </c>
-      <c r="G22" s="2">
+        <v>-6.2415653955397145E-2</v>
+      </c>
+      <c r="G22">
+        <v>488.94110107421898</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
+        <v>7.1055982339242483E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>6.2415653955397145E-2</v>
+      </c>
+      <c r="J22">
         <v>-7.4957240467200106E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="L22">
+        <v>488.94110110000003</v>
+      </c>
+      <c r="M22">
+        <v>7.1055982339242483E-3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>6.2415653955397145E-2</v>
+      </c>
+      <c r="O22" s="2">
+        <f>((A22*$U$1)+$U$2)*10^6</f>
+        <v>-7.4957240467200106E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>494.87082559999999</v>
       </c>
       <c r="B23">
@@ -3909,20 +4991,44 @@
       <c r="C23">
         <v>0.66519410567732595</v>
       </c>
-      <c r="D23">
-        <v>0.72686187137759595</v>
-      </c>
       <c r="E23">
+        <v>0.72686187057353935</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>-6.1667765700269994E-2</v>
-      </c>
-      <c r="G23" s="2">
+        <v>-6.1667764896213395E-2</v>
+      </c>
+      <c r="G23">
+        <v>494.87118530273398</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
+        <v>0.72686187057353935</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>6.1667764896213395E-2</v>
+      </c>
+      <c r="J23">
         <v>-3.4765544083199831E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="L23">
+        <v>494.87118529999998</v>
+      </c>
+      <c r="M23">
+        <v>0.72686187057353935</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>6.1667764896213395E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <f>((A23*$U$1)+$U$2)*10^6</f>
+        <v>-3.4765544083199831E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>495.02996960000002</v>
       </c>
       <c r="B24">
@@ -3931,20 +5037,44 @@
       <c r="C24">
         <v>-0.125999315891443</v>
       </c>
-      <c r="D24">
-        <v>-6.4351375364409297E-2</v>
-      </c>
       <c r="E24">
+        <v>-6.4351374560611643E-2</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>-6.1647940527033707E-2</v>
-      </c>
-      <c r="G24" s="2">
+        <v>-6.164794133083136E-2</v>
+      </c>
+      <c r="G24">
+        <v>495.02993774414102</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
+        <v>-6.4351374560611643E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>6.164794133083136E-2</v>
+      </c>
+      <c r="J24">
         <v>-3.3686866051199957E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="L24">
+        <v>495.0299377</v>
+      </c>
+      <c r="M24">
+        <v>-6.4351374560611643E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>6.164794133083136E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <f>((A24*$U$1)+$U$2)*10^6</f>
+        <v>-3.3686866051199957E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>500.8005536</v>
       </c>
       <c r="B25">
@@ -3953,20 +5083,42 @@
       <c r="C25">
         <v>-0.70324200291707195</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.70324200291707195</v>
       </c>
-      <c r="E25">
-        <f t="shared" ref="E3:E66" si="2">D25-C25</f>
+      <c r="F25">
+        <f t="shared" ref="F25:F64" si="4">E25-C25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25">
         <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-999999.29675799713</v>
+      </c>
+      <c r="J25">
         <v>5.4261523008000152E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="L25">
+        <v>500.80020141601602</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M64" si="5">(L25-A25)/A25*10^6</f>
+        <v>-0.70324200212253618</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>7.945357705096967E-10</v>
+      </c>
+      <c r="O25" s="2">
+        <f>((A25*$U$1)+$U$2)*10^6</f>
+        <v>5.4261523008000152E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>502.95674760000003</v>
       </c>
       <c r="B26">
@@ -3975,17 +5127,42 @@
       <c r="C26">
         <v>-0.22482751487663299</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.22482751487663299</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v>-999999.77517248516</v>
+      </c>
+      <c r="J26">
+        <v>2.0040835232800466E-2</v>
+      </c>
+      <c r="L26">
+        <v>502.95663452148398</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>-0.22482751566776268</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>-7.9112968953687357E-10</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" ref="O26:O73" si="6">((A26*$U$1)+$U$2)*10^6</f>
+        <v>2.0040835232800466E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>508.88647559999998</v>
       </c>
       <c r="B27">
@@ -3994,17 +5171,42 @@
       <c r="C27">
         <v>-1.02142516657586</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-1.02142516657586</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <v>-999998.97857483337</v>
+      </c>
+      <c r="J27">
+        <v>6.0232531616799888E-2</v>
+      </c>
+      <c r="L27">
+        <v>508.88592529296898</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>-1.0813944905034514</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>-5.9969323927591356E-2</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="6"/>
+        <v>6.0232531616799888E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>509.04561960000001</v>
       </c>
       <c r="B28">
@@ -4013,17 +5215,42 @@
       <c r="C28">
         <v>0.84751812805092197</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.84751812805092197</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+        <v>-1000000.847518128</v>
+      </c>
+      <c r="J28">
+        <v>6.1311209648800186E-2</v>
+      </c>
+      <c r="L28">
+        <v>509.04602050781199</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.78756755100721632</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>-5.9950577043705655E-2</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="6"/>
+        <v>6.1311209648800186E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>514.81620359999999</v>
       </c>
       <c r="B29">
@@ -4032,17 +5259,42 @@
       <c r="C29">
         <v>3.7964094989556101E-2</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.7964094989556101E-2</v>
       </c>
-      <c r="E29">
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>-1000000.037964095</v>
+      </c>
+      <c r="J29">
+        <v>0.10042422800080016</v>
+      </c>
+      <c r="L29">
+        <v>514.816162109375</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>-8.0593082937622892E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>-0.11855717792717899</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10042422800080016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>516.97239760000002</v>
       </c>
       <c r="B30">
@@ -4051,17 +5303,42 @@
       <c r="C30">
         <v>-1.03449823192662</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.03449823192662</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <v>-999998.96550176805</v>
+      </c>
+      <c r="J30">
+        <v>0.11503891093280019</v>
+      </c>
+      <c r="L30">
+        <v>516.97180175781205</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>-1.1525609311888991</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>-0.11806269926227908</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11503891093280019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>522.90212559999998</v>
       </c>
       <c r="B31">
@@ -4070,17 +5347,42 @@
       <c r="C31">
         <v>-0.28315229605686898</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.28315229605686898</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <v>-999999.71684770391</v>
+      </c>
+      <c r="J31">
+        <v>0.15523060731680002</v>
+      </c>
+      <c r="L31">
+        <v>522.90191650390602</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>-0.39987615983412816</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>-0.11672386377725918</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15523060731680002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>528.83185360000004</v>
       </c>
       <c r="B32">
@@ -4089,17 +5391,42 @@
       <c r="C32">
         <v>-0.35656123257575101</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.35656123257575101</v>
       </c>
-      <c r="E32">
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <v>-999999.64343876741</v>
+      </c>
+      <c r="J32">
+        <v>0.1954223037008003</v>
+      </c>
+      <c r="L32">
+        <v>528.83154296875</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>-0.58739133796560472</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>-0.23083010538985371</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1954223037008003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>530.98804759999996</v>
       </c>
       <c r="B33">
@@ -4108,17 +5435,42 @@
       <c r="C33">
         <v>-0.134703185000557</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-0.134703185000557</v>
       </c>
-      <c r="E33">
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <v>-999999.86529681506</v>
+      </c>
+      <c r="J33">
+        <v>0.2100369866327999</v>
+      </c>
+      <c r="L33">
+        <v>530.98785400390602</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>-0.36459595429944525</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>-0.22989276929888824</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.2100369866327999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>536.91777560000003</v>
       </c>
       <c r="B34">
@@ -4127,17 +5479,42 @@
       <c r="C34">
         <v>-0.66335372465404596</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.66335372465404596</v>
       </c>
-      <c r="E34">
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <v>-999999.33664627536</v>
+      </c>
+      <c r="J34">
+        <v>0.25022868301680018</v>
+      </c>
+      <c r="L34">
+        <v>536.91729736328102</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>-0.89070755474648666</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>-0.2273538300924407</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.25022868301680018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>542.84750359999998</v>
       </c>
       <c r="B35">
@@ -4146,17 +5523,42 @@
       <c r="C35">
         <v>-0.39340871251234399</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.39340871251234399</v>
       </c>
-      <c r="E35">
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <v>-999999.60659128753</v>
+      </c>
+      <c r="J35">
+        <v>0.29042037940080001</v>
+      </c>
+      <c r="L35">
+        <v>542.84710693359398</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>-0.73071424916550409</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>-0.3373055366531601</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="6"/>
+        <v>0.29042037940080001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>545.00369760000001</v>
       </c>
       <c r="B36">
@@ -4165,17 +5567,42 @@
       <c r="C36">
         <v>0.60682214441270299</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.60682214441270299</v>
       </c>
-      <c r="E36">
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <v>-1000000.6068221444</v>
+      </c>
+      <c r="J36">
+        <v>0.30503506233280003</v>
+      </c>
+      <c r="L36">
+        <v>545.00384521484398</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>0.27085108709885963</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>-0.33597105731384336</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="6"/>
+        <v>0.30503506233280003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>550.93342559999996</v>
       </c>
       <c r="B37">
@@ -4184,17 +5611,42 @@
       <c r="C37">
         <v>0.41599428467477201</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.41599428467477201</v>
       </c>
-      <c r="E37">
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+        <v>-1000000.4159942847</v>
+      </c>
+      <c r="J37">
+        <v>0.34522675871679992</v>
+      </c>
+      <c r="L37">
+        <v>550.93347167968795</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>8.3639303497437145E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>-0.33235498117733486</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="6"/>
+        <v>0.34522675871679992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>556.86315360000003</v>
       </c>
       <c r="B38">
@@ -4203,17 +5655,42 @@
       <c r="C38">
         <v>0.33883577140596799</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.33883577140596799</v>
       </c>
-      <c r="E38">
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v>-1000000.3388357714</v>
+      </c>
+      <c r="J38">
+        <v>0.38541845510080019</v>
+      </c>
+      <c r="L38">
+        <v>556.86309814453102</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>-9.9585452280780085E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>-0.43842122368674807</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="6"/>
+        <v>0.38541845510080019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>559.01934759999995</v>
       </c>
       <c r="B39">
@@ -4222,17 +5699,45 @@
       <c r="C39">
         <v>-2.7285895944299798</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
         <v>-2.7285895944299798</v>
       </c>
-      <c r="E39">
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <v>-999997.27141040552</v>
+      </c>
+      <c r="J39">
+        <v>0.40003313803279977</v>
+      </c>
+      <c r="L39">
+        <v>559.017578125</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>-3.1653197828360757</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>-0.4367301884060959</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="6"/>
+        <v>0.40003313803279977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>562.79288159999999</v>
       </c>
       <c r="B40">
@@ -4241,17 +5746,42 @@
       <c r="C40">
         <v>-6.20482483497257E-2</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-6.20482483497257E-2</v>
       </c>
-      <c r="E40">
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <v>-999999.93795175164</v>
+      </c>
+      <c r="J40">
+        <v>0.42561015148480003</v>
+      </c>
+      <c r="L40">
+        <v>562.79260253906205</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>-0.49585015565293167</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>-0.43380190730320595</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="6"/>
+        <v>0.42561015148480003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>564.94907560000001</v>
       </c>
       <c r="B41">
@@ -4260,17 +5790,42 @@
       <c r="C41">
         <v>-7.0724018305968098E-2</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>-7.0724018305968098E-2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <v>-999999.92927598173</v>
+      </c>
+      <c r="J41">
+        <v>0.44022483441680005</v>
+      </c>
+      <c r="L41">
+        <v>564.94879150390602</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>-0.50287026966160742</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>-0.43214625135563933</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="6"/>
+        <v>0.44022483441680005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>570.87880359999997</v>
       </c>
       <c r="B42">
@@ -4279,17 +5834,42 @@
       <c r="C42">
         <v>-0.56859020105903402</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-0.56859020105903402</v>
       </c>
-      <c r="E42">
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+        <v>-999999.43140979891</v>
+      </c>
+      <c r="J42">
+        <v>0.48041653080080032</v>
+      </c>
+      <c r="L42">
+        <v>570.87823486328102</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>-0.99624774183267395</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>-0.42765754077363993</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="6"/>
+        <v>0.48041653080080032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>576.80853160000004</v>
       </c>
       <c r="B43">
@@ -4298,17 +5878,42 @@
       <c r="C43">
         <v>0.213563339416559</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.213563339416559</v>
       </c>
-      <c r="E43">
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <v>-1000000.2135633394</v>
+      </c>
+      <c r="J43">
+        <v>0.5206082271848006</v>
+      </c>
+      <c r="L43">
+        <v>576.808349609375</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>-0.31551306034382254</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>-0.52907639976038157</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5206082271848006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>578.96472559999995</v>
       </c>
       <c r="B44">
@@ -4317,17 +5922,42 @@
       <c r="C44">
         <v>-0.21761364618714399</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>-0.21761364618714399</v>
       </c>
-      <c r="E44">
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <v>-999999.78238635382</v>
+      </c>
+      <c r="J44">
+        <v>0.53522291011679979</v>
+      </c>
+      <c r="L44">
+        <v>578.96429443359398</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>-0.74471964682710123</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>-0.52710600063995727</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="6"/>
+        <v>0.53522291011679979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>584.89445360000002</v>
       </c>
       <c r="B45">
@@ -4336,17 +5966,42 @@
       <c r="C45">
         <v>0.13275899523791801</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.13275899523791801</v>
       </c>
-      <c r="E45">
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+        <v>-1000000.1327589953</v>
+      </c>
+      <c r="J45">
+        <v>0.57541460650080001</v>
+      </c>
+      <c r="L45">
+        <v>584.89416503906205</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>-0.49335557244302808</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>-0.62611456768094609</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="6"/>
+        <v>0.57541460650080001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>590.82418159999997</v>
       </c>
       <c r="B46">
@@ -4355,17 +6010,42 @@
       <c r="C46">
         <v>6.2878265958869903E-2</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>6.2878265958869903E-2</v>
       </c>
-      <c r="E46">
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+        <v>-1000000.062878266</v>
+      </c>
+      <c r="J46">
+        <v>0.61560630288480034</v>
+      </c>
+      <c r="L46">
+        <v>590.82385253906205</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>-0.55695238647485135</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>-0.61983065243372126</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="6"/>
+        <v>0.61560630288480034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>592.9803756</v>
       </c>
       <c r="B47">
@@ -4374,17 +6054,42 @@
       <c r="C47">
         <v>0.157087829261844</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.157087829261844</v>
       </c>
-      <c r="E47">
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+        <v>-1000000.1570878293</v>
+      </c>
+      <c r="J47">
+        <v>0.63022098581680031</v>
+      </c>
+      <c r="L47">
+        <v>592.98010253906205</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>-0.46048899625148149</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>-0.61757682551332549</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="6"/>
+        <v>0.63022098581680031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>598.91010359999996</v>
       </c>
       <c r="B48">
@@ -4393,17 +6098,42 @@
       <c r="C48">
         <v>0.49555120753398901</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.49555120753398901</v>
       </c>
-      <c r="E48">
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+        <v>-1000000.4955512076</v>
+      </c>
+      <c r="J48">
+        <v>0.67041268220079975</v>
+      </c>
+      <c r="L48">
+        <v>598.90997314453102</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>-0.21782145291911145</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>-0.71337266045310044</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="6"/>
+        <v>0.67041268220079975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>604.83983160000002</v>
       </c>
       <c r="B49">
@@ -4412,17 +6142,42 @@
       <c r="C49">
         <v>-0.18173457960633299</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>-0.18173457960633299</v>
       </c>
-      <c r="E49">
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <v>-999999.81826542038</v>
+      </c>
+      <c r="J49">
+        <v>0.71060437858480008</v>
+      </c>
+      <c r="L49">
+        <v>604.83929443359398</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>-0.88811347729304835</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>-0.70637889768671536</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="6"/>
+        <v>0.71060437858480008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>612.76660960000004</v>
       </c>
       <c r="B50">
@@ -4431,17 +6186,42 @@
       <c r="C50">
         <v>-1.30799315551996</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>-1.30799315551996</v>
       </c>
-      <c r="E50">
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <v>-999998.69200684445</v>
+      </c>
+      <c r="J50">
+        <v>0.76433207986880047</v>
+      </c>
+      <c r="L50">
+        <v>612.76531982421898</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>-2.1048401803462071</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>-0.79684702482624714</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="6"/>
+        <v>0.76433207986880047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>612.92575360000001</v>
       </c>
       <c r="B51">
@@ -4450,17 +6230,42 @@
       <c r="C51">
         <v>0.54301157895206198</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.54301157895206198</v>
       </c>
-      <c r="E51">
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <v>-1000000.543011579</v>
+      </c>
+      <c r="J51">
+        <v>0.76541075790080038</v>
+      </c>
+      <c r="L51">
+        <v>612.92559814453102</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>-0.25362854810977137</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>-0.79664012706183329</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="6"/>
+        <v>0.76541075790080038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>618.85548159999996</v>
       </c>
       <c r="B52">
@@ -4469,17 +6274,42 @@
       <c r="C52">
         <v>-2.0764136933311E-2</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>-2.0764136933311E-2</v>
       </c>
-      <c r="E52">
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <v>-999999.97923586308</v>
+      </c>
+      <c r="J52">
+        <v>0.80560245428479971</v>
+      </c>
+      <c r="L52">
+        <v>618.85498046875</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>-0.80977104487503104</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>-0.78900690794172001</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="6"/>
+        <v>0.80560245428479971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>626.78225959999997</v>
       </c>
       <c r="B53">
@@ -4488,17 +6318,42 @@
       <c r="C53">
         <v>-5.2709692191889299E-2</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>-5.2709692191889299E-2</v>
       </c>
-      <c r="E53">
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <v>-999999.94729030784</v>
+      </c>
+      <c r="J53">
+        <v>0.85933015556880021</v>
+      </c>
+      <c r="L53">
+        <v>626.78167724609398</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>-0.92911676595493609</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>-0.87640707376304683</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="6"/>
+        <v>0.85933015556880021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>626.94140359999994</v>
       </c>
       <c r="B54">
@@ -4507,17 +6362,42 @@
       <c r="C54">
         <v>0.296288405486061</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.296288405486061</v>
       </c>
-      <c r="E54">
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+        <v>-1000000.2962884054</v>
+      </c>
+      <c r="J54">
+        <v>0.86040883360080012</v>
+      </c>
+      <c r="L54">
+        <v>626.94104003906205</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>-0.57989620052413815</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>-0.87618460601019921</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="6"/>
+        <v>0.86040883360080012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>632.87113160000001</v>
       </c>
       <c r="B55">
@@ -4526,17 +6406,42 @@
       <c r="C55">
         <v>0.229518240736199</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.229518240736199</v>
       </c>
-      <c r="E55">
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <v>-1000000.2295182408</v>
+      </c>
+      <c r="J55">
+        <v>0.90060052998480034</v>
+      </c>
+      <c r="L55">
+        <v>632.87072753906205</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>-0.63845689555416563</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>-0.8679751362903646</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="6"/>
+        <v>0.90060052998480034</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>640.79790960000003</v>
       </c>
       <c r="B56">
@@ -4545,375 +6450,878 @@
       <c r="C56">
         <v>-0.18581935816511699</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>-0.18581935816511699</v>
       </c>
-      <c r="E56">
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="2"/>
+        <v>-999999.81418064178</v>
+      </c>
+      <c r="J56">
+        <v>0.95432823126880073</v>
+      </c>
+      <c r="L56">
+        <v>640.79718017578102</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>-1.1383061774625902</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>-0.95248681929747325</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="6"/>
+        <v>0.95432823126880073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>646.88678159999995</v>
+      </c>
+      <c r="B57">
+        <v>646.88763427734398</v>
+      </c>
+      <c r="C57">
+        <v>1.31812454366694</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>1.31812454366694</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>-1000001.3181245436</v>
+      </c>
+      <c r="J57">
+        <v>0.99559860568480008</v>
+      </c>
+      <c r="L57">
+        <v>646.886962890625</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>0.28025093448698551</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>-1.0378736091799545</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99559860568480008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>654.81355959999996</v>
+      </c>
+      <c r="B58">
+        <v>654.81353759765602</v>
+      </c>
+      <c r="C58">
+        <v>-3.3600928676159603E-2</v>
+      </c>
+      <c r="E58">
+        <v>-3.3600928676159603E-2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>-999999.96639907127</v>
+      </c>
+      <c r="J58">
+        <v>1.0493263069687997</v>
+      </c>
+      <c r="L58">
+        <v>654.81286621093795</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>-1.0589106652451099</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>-1.0253097365689503</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0493263069687997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>660.74328760000003</v>
+      </c>
+      <c r="B59">
+        <v>660.74359130859398</v>
+      </c>
+      <c r="C59">
+        <v>0.45964688468129999</v>
+      </c>
+      <c r="E59">
+        <v>0.45964688468129999</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>-1000000.4596468847</v>
+      </c>
+      <c r="J59">
+        <v>1.0895180033528007</v>
+      </c>
+      <c r="L59">
+        <v>660.74285888671898</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>-0.64883486385523403</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>-1.1084817485365339</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0895180033528007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>668.82920960000001</v>
+      </c>
+      <c r="B60">
+        <v>668.82940673828102</v>
+      </c>
+      <c r="C60">
+        <v>0.29475130333352301</v>
+      </c>
+      <c r="E60">
+        <v>0.29475130333352301</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>-1000000.2947513034</v>
+      </c>
+      <c r="J60">
+        <v>1.1443243826688001</v>
+      </c>
+      <c r="L60">
+        <v>668.82861328125</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>-0.89158598556050517</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>-1.1863372888940282</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1443243826688001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>674.75893759999997</v>
+      </c>
+      <c r="B61">
+        <v>674.75891113281205</v>
+      </c>
+      <c r="C61">
+        <v>-3.9224656381136098E-2</v>
+      </c>
+      <c r="E61">
+        <v>-3.9224656381136098E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>-999999.96077534358</v>
+      </c>
+      <c r="J61">
+        <v>1.1845160790527995</v>
+      </c>
+      <c r="L61">
+        <v>674.75811767578102</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>-1.2151365076558478</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="3"/>
+        <v>-1.1759118512747118</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1845160790527995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>682.84485959999995</v>
+      </c>
+      <c r="B62">
+        <v>682.84478759765602</v>
+      </c>
+      <c r="C62">
+        <v>-0.105444659482285</v>
+      </c>
+      <c r="E62">
+        <v>-0.105444659482285</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>-999999.89455534052</v>
+      </c>
+      <c r="J62">
+        <v>1.2393224583687998</v>
+      </c>
+      <c r="L62">
+        <v>682.84393310546898</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>-1.3568155605873689</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="3"/>
+        <v>-1.2513709011050838</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2393224583687998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>688.77458760000002</v>
+      </c>
+      <c r="B63">
+        <v>688.77459716796898</v>
+      </c>
+      <c r="C63">
+        <v>1.38912917291428E-2</v>
+      </c>
+      <c r="E63">
+        <v>1.38912917291428E-2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>-1000000.0138912917</v>
+      </c>
+      <c r="J63">
+        <v>1.2795141547528002</v>
+      </c>
+      <c r="L63">
+        <v>688.77374267578102</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>-1.226706435177142</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
+        <v>-1.2405977269062847</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2795141547528002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>696.8605096</v>
+      </c>
+      <c r="B64">
+        <v>696.86047363281205</v>
+      </c>
+      <c r="C64">
+        <v>-5.1613180837243797E-2</v>
+      </c>
+      <c r="E64">
+        <v>-5.1613180837243797E-2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>-999999.94838681922</v>
+      </c>
+      <c r="J64">
+        <v>1.3343205340688005</v>
+      </c>
+      <c r="L64">
+        <v>696.85955810546898</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>-1.3654017094025113</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>-1.3137885285652675</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3343205340688005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>702.79023759999995</v>
+      </c>
+      <c r="B65">
+        <v>702.79016113281205</v>
+      </c>
+      <c r="C65">
+        <v>-0.108805136104397</v>
+      </c>
+      <c r="E65">
+        <v>-0.108805136104397</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F73" si="7">E65-C65</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65:H73" si="8">(G65-A65)/A65*10^6</f>
+        <v>-1000000</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ref="I65:I73" si="9">H65-C65</f>
+        <v>-999999.89119486394</v>
+      </c>
+      <c r="J65">
+        <v>1.3745122304527999</v>
+      </c>
+      <c r="L65">
+        <v>702.78918457031205</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:M73" si="10">(L65-A65)/A65*10^6</f>
+        <v>-1.4983555996817917</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65:N73" si="11">M65-C65</f>
+        <v>-1.3895504635773948</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3745122304527999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>716.80588760000001</v>
+      </c>
+      <c r="B66">
+        <v>716.80584716796898</v>
+      </c>
+      <c r="C66">
+        <v>-5.6405830302051999E-2</v>
+      </c>
+      <c r="E66">
+        <v>-5.6405830302051999E-2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="9"/>
+        <v>-999999.94359416969</v>
+      </c>
+      <c r="J66">
+        <v>1.4695103061528005</v>
+      </c>
+      <c r="L66">
+        <v>716.80480957031205</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="10"/>
+        <v>-1.5039353144401051</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="11"/>
+        <v>-1.447529484138053</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4695103061528005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>722.73561559999996</v>
+      </c>
+      <c r="B67">
+        <v>722.73614501953102</v>
+      </c>
+      <c r="C67">
+        <v>0.73252171314460401</v>
+      </c>
+      <c r="E67">
+        <v>0.73252171314460401</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="9"/>
+        <v>-1000000.7325217131</v>
+      </c>
+      <c r="J67">
+        <v>1.5097020025368</v>
+      </c>
+      <c r="L67">
+        <v>722.73504638671898</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="10"/>
+        <v>-0.78758161172138375</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="11"/>
+        <v>-1.5201033248659876</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5097020025368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>730.82153760000006</v>
+      </c>
+      <c r="B68">
+        <v>730.82135009765602</v>
+      </c>
+      <c r="C68">
+        <v>-0.25656379041838101</v>
+      </c>
+      <c r="E68">
+        <v>-0.25656379041838101</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="9"/>
+        <v>-999999.74343620962</v>
+      </c>
+      <c r="J68">
+        <v>1.5645083818528003</v>
+      </c>
+      <c r="L68">
+        <v>730.82019042968795</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="10"/>
+        <v>-1.8433642726586468</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="11"/>
+        <v>-1.5868004822402657</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5645083818528003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>736.75126560000001</v>
+      </c>
+      <c r="B69">
+        <v>736.75109863281205</v>
+      </c>
+      <c r="C69">
+        <v>-0.226626264937136</v>
+      </c>
+      <c r="E69">
+        <v>-0.226626264937136</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="9"/>
+        <v>-999999.77337373502</v>
+      </c>
+      <c r="J69">
+        <v>1.6047000782368004</v>
+      </c>
+      <c r="L69">
+        <v>736.74993896484398</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="10"/>
+        <v>-1.8006554151662963</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="11"/>
+        <v>-1.5740291502291603</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6047000782368004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>750.76691559999995</v>
+      </c>
+      <c r="B70">
+        <v>750.76672363281205</v>
+      </c>
+      <c r="C70">
+        <v>-0.25569478816751001</v>
+      </c>
+      <c r="E70">
+        <v>-0.25569478816751001</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="9"/>
+        <v>-999999.74430521182</v>
+      </c>
+      <c r="J70">
+        <v>1.6996981539368001</v>
+      </c>
+      <c r="L70">
+        <v>750.76544189453102</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="10"/>
+        <v>-1.9629334195515671</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="11"/>
+        <v>-1.7072386313840571</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6996981539368001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>764.7825656</v>
+      </c>
+      <c r="B71">
+        <v>764.78234863281205</v>
+      </c>
+      <c r="C71">
+        <v>-0.28369787343134101</v>
+      </c>
+      <c r="E71">
+        <v>-0.28369787343134101</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="9"/>
+        <v>-999999.71630212653</v>
+      </c>
+      <c r="J71">
+        <v>1.7946962296367999</v>
+      </c>
+      <c r="L71">
+        <v>764.78094482421898</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="10"/>
+        <v>-2.119263505633334</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="11"/>
+        <v>-1.8355656322019929</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7946962296367999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>784.7279436</v>
+      </c>
+      <c r="B72">
+        <v>784.72821044921898</v>
+      </c>
+      <c r="C72">
+        <v>0.34005316227502402</v>
+      </c>
+      <c r="E72">
+        <v>0.34005316227502402</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="9"/>
+        <v>-1000000.3400531623</v>
+      </c>
+      <c r="J72">
+        <v>1.9298860017207999</v>
+      </c>
+      <c r="L72">
+        <v>784.72668457031205</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="10"/>
+        <v>-1.6044155152448061</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="11"/>
+        <v>-1.9444686775198301</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9298860017207999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>798.74359360000005</v>
+      </c>
+      <c r="B73">
+        <v>798.74285888671898</v>
+      </c>
+      <c r="C73">
+        <v>-0.91983621175902197</v>
+      </c>
+      <c r="E73">
+        <v>-0.91983621175902197</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="9"/>
+        <v>-999999.08016378828</v>
+      </c>
+      <c r="J73">
+        <v>2.0248840774208006</v>
+      </c>
+      <c r="L73">
+        <v>798.74127197265602</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="10"/>
+        <v>-2.9065990170480474</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="11"/>
+        <v>-1.9867628052890254</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0248840774208006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>646.72763759999998</v>
       </c>
-      <c r="B57">
+      <c r="B94">
         <v>646.72863769531205</v>
       </c>
-      <c r="C57">
+      <c r="C94">
         <v>1.5463933414556601</v>
       </c>
-      <c r="D57">
+      <c r="E94">
         <v>1.5463933414556601</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="2"/>
+      <c r="F94">
+        <f>E94-C94</f>
         <v>0</v>
       </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>646.88678159999995</v>
-      </c>
-      <c r="B58">
-        <v>646.88763427734398</v>
-      </c>
-      <c r="C58">
-        <v>1.31812454366694</v>
-      </c>
-      <c r="D58">
-        <v>1.31812454366694</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="2"/>
+      <c r="H94">
+        <f>(G94-A94)/A94*10^6</f>
+        <v>-1000000</v>
+      </c>
+      <c r="I94">
+        <f>H94-C94</f>
+        <v>-1000001.5463933415</v>
+      </c>
+      <c r="J94">
+        <v>0.99451992765280017</v>
+      </c>
+      <c r="L94">
+        <v>646.72796630859398</v>
+      </c>
+      <c r="M94">
+        <f>(L94-A94)/A94*10^6</f>
+        <v>0.50826433708198493</v>
+      </c>
+      <c r="N94">
+        <f>M94-C94</f>
+        <v>-1.0381290043736753</v>
+      </c>
+      <c r="O94" s="2">
+        <f>((A94*$U$1)+$U$2)*10^6</f>
+        <v>0.99451992765280017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>660.9024316</v>
+      </c>
+      <c r="B95">
+        <v>660.90130615234398</v>
+      </c>
+      <c r="C95">
+        <v>-1.7028953177328401</v>
+      </c>
+      <c r="E95">
+        <v>-1.7028953177328401</v>
+      </c>
+      <c r="F95">
+        <f>E95-C95</f>
         <v>0</v>
       </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>654.81355959999996</v>
-      </c>
-      <c r="B59">
-        <v>654.81353759765602</v>
-      </c>
-      <c r="C59">
-        <v>-3.3600928676159603E-2</v>
-      </c>
-      <c r="D59">
-        <v>-3.3600928676159603E-2</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>660.74328760000003</v>
-      </c>
-      <c r="B60">
-        <v>660.74359130859398</v>
-      </c>
-      <c r="C60">
-        <v>0.45964688468129999</v>
-      </c>
-      <c r="D60">
-        <v>0.45964688468129999</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>660.9024316</v>
-      </c>
-      <c r="B61">
-        <v>660.90130615234398</v>
-      </c>
-      <c r="C61">
-        <v>-1.7028953177328401</v>
-      </c>
-      <c r="D61">
-        <v>-1.7028953177328401</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>668.82920960000001</v>
-      </c>
-      <c r="B62">
-        <v>668.82940673828102</v>
-      </c>
-      <c r="C62">
-        <v>0.29475130333352301</v>
-      </c>
-      <c r="D62">
-        <v>0.29475130333352301</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>674.75893759999997</v>
-      </c>
-      <c r="B63">
-        <v>674.75891113281205</v>
-      </c>
-      <c r="C63">
-        <v>-3.9224656381136098E-2</v>
-      </c>
-      <c r="D63">
-        <v>-3.9224656381136098E-2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>682.84485959999995</v>
-      </c>
-      <c r="B64">
-        <v>682.84478759765602</v>
-      </c>
-      <c r="C64">
-        <v>-0.105444659482285</v>
-      </c>
-      <c r="D64">
-        <v>-0.105444659482285</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>688.77458760000002</v>
-      </c>
-      <c r="B65">
-        <v>688.77459716796898</v>
-      </c>
-      <c r="C65">
-        <v>1.38912917291428E-2</v>
-      </c>
-      <c r="D65">
-        <v>1.38912917291428E-2</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>696.8605096</v>
-      </c>
-      <c r="B66">
-        <v>696.86047363281205</v>
-      </c>
-      <c r="C66">
-        <v>-5.1613180837243797E-2</v>
-      </c>
-      <c r="D66">
-        <v>-5.1613180837243797E-2</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>702.79023759999995</v>
-      </c>
-      <c r="B67">
-        <v>702.79016113281205</v>
-      </c>
-      <c r="C67">
-        <v>-0.108805136104397</v>
-      </c>
-      <c r="D67">
-        <v>-0.108805136104397</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E75" si="3">D67-C67</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>716.80588760000001</v>
-      </c>
-      <c r="B68">
-        <v>716.80584716796898</v>
-      </c>
-      <c r="C68">
-        <v>-5.6405830302051999E-2</v>
-      </c>
-      <c r="D68">
-        <v>-5.6405830302051999E-2</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>722.73561559999996</v>
-      </c>
-      <c r="B69">
-        <v>722.73614501953102</v>
-      </c>
-      <c r="C69">
-        <v>0.73252171314460401</v>
-      </c>
-      <c r="D69">
-        <v>0.73252171314460401</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>730.82153760000006</v>
-      </c>
-      <c r="B70">
-        <v>730.82135009765602</v>
-      </c>
-      <c r="C70">
-        <v>-0.25656379041838101</v>
-      </c>
-      <c r="D70">
-        <v>-0.25656379041838101</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>736.75126560000001</v>
-      </c>
-      <c r="B71">
-        <v>736.75109863281205</v>
-      </c>
-      <c r="C71">
-        <v>-0.226626264937136</v>
-      </c>
-      <c r="D71">
-        <v>-0.226626264937136</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>750.76691559999995</v>
-      </c>
-      <c r="B72">
-        <v>750.76672363281205</v>
-      </c>
-      <c r="C72">
-        <v>-0.25569478816751001</v>
-      </c>
-      <c r="D72">
-        <v>-0.25569478816751001</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>764.7825656</v>
-      </c>
-      <c r="B73">
-        <v>764.78234863281205</v>
-      </c>
-      <c r="C73">
-        <v>-0.28369787343134101</v>
-      </c>
-      <c r="D73">
-        <v>-0.28369787343134101</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>784.7279436</v>
-      </c>
-      <c r="B74">
-        <v>784.72821044921898</v>
-      </c>
-      <c r="C74">
-        <v>0.34005316227502402</v>
-      </c>
-      <c r="D74">
-        <v>0.34005316227502402</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>798.74359360000005</v>
-      </c>
-      <c r="B75">
-        <v>798.74285888671898</v>
-      </c>
-      <c r="C75">
-        <v>-0.91983621175902197</v>
-      </c>
-      <c r="D75">
-        <v>-0.91983621175902197</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="2"/>
+      <c r="H95">
+        <f>(G95-A95)/A95*10^6</f>
+        <v>-1000000</v>
+      </c>
+      <c r="I95">
+        <f>H95-C95</f>
+        <v>-999998.29710468231</v>
+      </c>
+      <c r="J95">
+        <v>1.0905966813847998</v>
+      </c>
+      <c r="L95">
+        <v>660.90057373046898</v>
+      </c>
+      <c r="M95">
+        <f>(L95-A95)/A95*10^6</f>
+        <v>-2.811110146053994</v>
+      </c>
+      <c r="N95">
+        <f>M95-C95</f>
+        <v>-1.1082148283211539</v>
+      </c>
+      <c r="O95" s="2">
+        <f>((A95*$U$1)+$U$2)*10^6</f>
+        <v>1.0905966813847998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/products analysis/reference compounds analysis/raw CP reference matches sample99_2.xlsx
+++ b/products analysis/reference compounds analysis/raw CP reference matches sample99_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11949299-3AEB-49BF-8418-622D699BDEBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5AA2CBB2-DD3C-40AA-A60C-A82D81341E36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="8280" yWindow="0" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="raw CP reference matches sample" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -960,225 +960,225 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$O$2:$O$73</c:f>
+              <c:f>'raw CP reference matches sample'!$R$2:$R$73</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>-1.0238593194351999</c:v>
+                  <c:v>-1.0238135493889047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.92886124373519985</c:v>
+                  <c:v>-0.92881972043085459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.83386316803520011</c:v>
+                  <c:v>-0.83382589147280484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.79367147165119989</c:v>
+                  <c:v>-0.79363599179638855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.73886509233520004</c:v>
+                  <c:v>-0.73883206251475475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.6986733959511997</c:v>
+                  <c:v>-0.6986421628383388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.60367532025119996</c:v>
+                  <c:v>-0.6036483338802886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.54994761896720001</c:v>
+                  <c:v>-0.54992303441002277</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.50867724455119989</c:v>
+                  <c:v>-0.50865450492223896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.45494954326719983</c:v>
+                  <c:v>-0.45492920545197257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.35995146756720015</c:v>
+                  <c:v>-0.35993537649392282</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.31975977118319987</c:v>
+                  <c:v>-0.31974547681750654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.31868109315119997</c:v>
+                  <c:v>-0.31866684700613901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.26495339186719996</c:v>
+                  <c:v>-0.26494154753587268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.26387471383519967</c:v>
+                  <c:v>-0.26386291772450471</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.22476169548319971</c:v>
+                  <c:v>-0.22475164785945678</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.22368301745119984</c:v>
+                  <c:v>-0.22367301804808842</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.16995531616719983</c:v>
+                  <c:v>-0.16994771857782295</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.12976361978319997</c:v>
+                  <c:v>-0.12975781890140664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.12868494175119968</c:v>
+                  <c:v>-0.12867918909003867</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.4957240467200106E-2</c:v>
+                  <c:v>-7.4953889619772784E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.4765544083199831E-2</c:v>
+                  <c:v>-3.4763989943356895E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.3686866051199957E-2</c:v>
+                  <c:v>-3.3685360131988522E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.4261523008000152E-3</c:v>
+                  <c:v>5.4259097330594227E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0040835232800466E-2</c:v>
+                  <c:v>2.0039939338277381E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0232531616799888E-2</c:v>
+                  <c:v>6.0229839014693268E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.1311209648800186E-2</c:v>
+                  <c:v>6.1308468826061217E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10042422800080016</c:v>
+                  <c:v>0.10041973869110916</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11503891093280019</c:v>
+                  <c:v>0.11503376829632754</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15523060731680002</c:v>
+                  <c:v>0.15522366797274301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1954223037008003</c:v>
+                  <c:v>0.19541356764915974</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2100369866327999</c:v>
+                  <c:v>0.21002759725437686</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25022868301680018</c:v>
+                  <c:v>0.25021749693079359</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.29042037940080001</c:v>
+                  <c:v>0.29040739660720905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.30503506233280003</c:v>
+                  <c:v>0.30502142621242745</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.34522675871679992</c:v>
+                  <c:v>0.3452113258888429</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.38541845510080019</c:v>
+                  <c:v>0.38540122556525963</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.40003313803279977</c:v>
+                  <c:v>0.40001525517047676</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.42561015148480003</c:v>
+                  <c:v>0.42559112524167514</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.44022483441680005</c:v>
+                  <c:v>0.44020515484689349</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.48041653080080032</c:v>
+                  <c:v>0.48039505452330938</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5206082271848006</c:v>
+                  <c:v>0.52058495419972528</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.53522291011679979</c:v>
+                  <c:v>0.5351989838049428</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57541460650080001</c:v>
+                  <c:v>0.57538888348135953</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.61560630288480034</c:v>
+                  <c:v>0.61557878315777548</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63022098581680031</c:v>
+                  <c:v>0.63019281276299299</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.67041268220079975</c:v>
+                  <c:v>0.67038271243940883</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.71060437858480008</c:v>
+                  <c:v>0.71057261211582556</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.76433207986880047</c:v>
+                  <c:v>0.76429791158609106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.76541075790080038</c:v>
+                  <c:v>0.76537654139745903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.80560245428479971</c:v>
+                  <c:v>0.80556644107387487</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.85933015556880021</c:v>
+                  <c:v>0.85929174054414126</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.86040883360080012</c:v>
+                  <c:v>0.86037037035550923</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.90060052998480034</c:v>
+                  <c:v>0.90056027003192507</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.95432823126880073</c:v>
+                  <c:v>0.95428556950219146</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99559860568480008</c:v>
+                  <c:v>0.99555409898997527</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0493263069687997</c:v>
+                  <c:v>1.0492793984602407</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0895180033528007</c:v>
+                  <c:v>1.0894692981366574</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1443243826688001</c:v>
+                  <c:v>1.144273227418291</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1845160790527995</c:v>
+                  <c:v>1.1844631270947068</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2393224583687998</c:v>
+                  <c:v>1.239267056376341</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2795141547528002</c:v>
+                  <c:v>1.2794569560527569</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3343205340688005</c:v>
+                  <c:v>1.3342608853343911</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3745122304527999</c:v>
+                  <c:v>1.3744507850108072</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4695103061528005</c:v>
+                  <c:v>1.4694446139688573</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5097020025368</c:v>
+                  <c:v>1.5096345136452731</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5645083818528003</c:v>
+                  <c:v>1.5644384429269074</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6047000782368004</c:v>
+                  <c:v>1.6046283426033232</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6996981539368001</c:v>
+                  <c:v>1.6996221715613726</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7946962296367999</c:v>
+                  <c:v>1.7946160005194227</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9298860017207999</c:v>
+                  <c:v>1.9297997291538889</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.0248840774208006</c:v>
+                  <c:v>2.0247935581119401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,7 +1445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$M$2:$M$73</c:f>
+              <c:f>'raw CP reference matches sample'!$P$2:$P$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2650,7 +2650,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'raw CP reference matches sample'!$W$1</c:f>
+              <c:f>'raw CP reference matches sample'!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2682,7 +2682,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$W$3:$W$4</c:f>
+              <c:f>'raw CP reference matches sample'!$Z$3:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2697,7 +2697,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$X$3:$X$4</c:f>
+              <c:f>'raw CP reference matches sample'!$AA$3:$AA$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2722,7 +2722,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'raw CP reference matches sample'!$W$7</c:f>
+              <c:f>'raw CP reference matches sample'!$Z$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2754,7 +2754,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$W$9:$W$10</c:f>
+              <c:f>'raw CP reference matches sample'!$Z$9:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2769,7 +2769,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'raw CP reference matches sample'!$X$9:$X$10</c:f>
+              <c:f>'raw CP reference matches sample'!$AA$9:$AA$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2887,7 +2887,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3579,16 +3579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3913,19 +3913,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="18" max="18" width="7" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3947,35 +3948,35 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1">
-        <v>6.7780000000000004E-9</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="1">
+        <v>6.7776969999999997E-9</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>348.94374160000001</v>
       </c>
@@ -3999,41 +4000,41 @@
         <f>(G2-A2)/A2*10^6</f>
         <v>4.1564052550597898E-2</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <f>H2-C2</f>
         <v>1.0494841839510578</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>-1.0238593194351999</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>348.94375609999997</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>4.1564052550597898E-2</v>
       </c>
-      <c r="N2">
-        <f>M2-C2</f>
+      <c r="Q2">
+        <f>P2-C2</f>
         <v>1.0494841839510578</v>
       </c>
-      <c r="O2" s="2">
-        <f>((A2*$U$1)+$U$2)*10^6</f>
-        <v>-1.0238593194351999</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="R2" s="2">
+        <f>((A2*$X$1)+$X$2)*10^6</f>
+        <v>-1.0238135493889047</v>
+      </c>
+      <c r="W2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1">
-        <v>-3.3890000000000001E-6</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" s="1">
+        <v>-3.3888484999999998E-6</v>
+      </c>
+      <c r="Z2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>362.9593916</v>
       </c>
@@ -4057,35 +4058,35 @@
         <f t="shared" ref="H3:H64" si="1">(G3-A3)/A3*10^6</f>
         <v>0.4755600432671992</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I64" si="2">H3-C3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L64" si="2">H3-C3</f>
         <v>0.92487855872055125</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>-0.92886124373519985</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>362.95935059999999</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>0.4755600432671992</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N64" si="3">M3-C3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q64" si="3">P3-C3</f>
         <v>0.92487855872055125</v>
       </c>
-      <c r="O3" s="2">
-        <f>((A3*$U$1)+$U$2)*10^6</f>
-        <v>-0.92886124373519985</v>
-      </c>
-      <c r="W3">
+      <c r="R3" s="2">
+        <f>((A3*$X$1)+$X$2)*10^6</f>
+        <v>-0.92881972043085459</v>
+      </c>
+      <c r="Z3">
         <v>300</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>376.9750416</v>
       </c>
@@ -4109,35 +4110,35 @@
         <f t="shared" si="1"/>
         <v>-9.41613636375664E-2</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>0.8095384255483925</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>-0.83386316803520011</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>376.97500609999997</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>-9.41613636375664E-2</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <f t="shared" si="3"/>
         <v>0.8095384255483925</v>
       </c>
-      <c r="O4" s="2">
-        <f>((A4*$U$1)+$U$2)*10^6</f>
-        <v>-0.83386316803520011</v>
-      </c>
-      <c r="W4">
+      <c r="R4" s="2">
+        <f>((A4*$X$1)+$X$2)*10^6</f>
+        <v>-0.83382589147280484</v>
+      </c>
+      <c r="Z4">
         <v>800</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>382.90476960000001</v>
       </c>
@@ -4161,29 +4162,29 @@
         <f t="shared" si="1"/>
         <v>-0.27817376656969084</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>0.79700177691803908</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>-0.79367147165119989</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>382.90466309999999</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>-0.27817376656969084</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <f t="shared" si="3"/>
         <v>0.79700177691803908</v>
       </c>
-      <c r="O5" s="2">
-        <f>((A5*$U$1)+$U$2)*10^6</f>
-        <v>-0.79367147165119989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R5" s="2">
+        <f>((A5*$X$1)+$X$2)*10^6</f>
+        <v>-0.79363599179638855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>390.99069159999999</v>
       </c>
@@ -4203,29 +4204,29 @@
         <f t="shared" si="1"/>
         <v>1.5624163109515912</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>0.70246736975539814</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>-0.73886509233520004</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>390.9902649</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>1.5624163109515912</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <f t="shared" si="3"/>
         <v>0.70246736975539814</v>
       </c>
-      <c r="O6" s="2">
-        <f>((A6*$U$1)+$U$2)*10^6</f>
-        <v>-0.73886509233520004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R6" s="2">
+        <f>((A6*$X$1)+$X$2)*10^6</f>
+        <v>-0.73883206251475475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>396.9204196</v>
       </c>
@@ -4249,32 +4250,32 @@
         <f t="shared" si="1"/>
         <v>-0.71576552624847634</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>0.69197297411777359</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>-0.6986733959511997</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>396.92013550000001</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>-0.71576552624847634</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <f t="shared" si="3"/>
         <v>0.69197297411777359</v>
       </c>
-      <c r="O7" s="2">
-        <f>((A7*$U$1)+$U$2)*10^6</f>
-        <v>-0.6986733959511997</v>
-      </c>
-      <c r="W7" s="4" t="s">
+      <c r="R7" s="2">
+        <f>((A7*$X$1)+$X$2)*10^6</f>
+        <v>-0.6986421628383388</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>410.9360696</v>
       </c>
@@ -4298,35 +4299,35 @@
         <f t="shared" si="1"/>
         <v>0.58455431583059492</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>0.59410853158730148</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>-0.60367532025119996</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>410.93600459999999</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.58455431583059492</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <f t="shared" si="3"/>
         <v>0.59410853158730148</v>
       </c>
-      <c r="O8" s="2">
-        <f>((A8*$U$1)+$U$2)*10^6</f>
-        <v>-0.60367532025119996</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="R8" s="2">
+        <f>((A8*$X$1)+$X$2)*10^6</f>
+        <v>-0.6036483338802886</v>
+      </c>
+      <c r="Z8" t="s">
         <v>13</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>418.86284760000001</v>
       </c>
@@ -4350,35 +4351,35 @@
         <f t="shared" si="1"/>
         <v>0.30672144761549858</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>0.58286531409087861</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>-0.54994761896720001</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>418.86294559999999</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.30672144761549858</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <f t="shared" si="3"/>
         <v>0.58286531409087861</v>
       </c>
-      <c r="O9" s="2">
-        <f>((A9*$U$1)+$U$2)*10^6</f>
-        <v>-0.54994761896720001</v>
-      </c>
-      <c r="W9">
+      <c r="R9" s="2">
+        <f>((A9*$X$1)+$X$2)*10^6</f>
+        <v>-0.54992303441002277</v>
+      </c>
+      <c r="Z9">
         <v>300</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>424.95171959999999</v>
       </c>
@@ -4402,35 +4403,35 @@
         <f t="shared" si="1"/>
         <v>-2.3661244927424518</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>0.50269957011208799</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>-0.50867724455119989</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>424.95071410000003</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>-2.3661244927424518</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <f t="shared" si="3"/>
         <v>0.50269957011208799</v>
       </c>
-      <c r="O10" s="2">
-        <f>((A10*$U$1)+$U$2)*10^6</f>
-        <v>-0.50867724455119989</v>
-      </c>
-      <c r="W10">
+      <c r="R10" s="2">
+        <f>((A10*$X$1)+$X$2)*10^6</f>
+        <v>-0.50865450492223896</v>
+      </c>
+      <c r="Z10">
         <v>800</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>432.8784976</v>
       </c>
@@ -4454,29 +4455,29 @@
         <f t="shared" si="1"/>
         <v>-0.53645339815506732</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>0.42299506528340869</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>-0.45494954326719983</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>432.87826539999998</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>-0.53645339815506732</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <f t="shared" si="3"/>
         <v>0.42299506528340869</v>
       </c>
-      <c r="O11" s="2">
-        <f>((A11*$U$1)+$U$2)*10^6</f>
-        <v>-0.45494954326719983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R11" s="2">
+        <f>((A11*$X$1)+$X$2)*10^6</f>
+        <v>-0.45492920545197257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>446.8941476</v>
       </c>
@@ -4500,29 +4501,29 @@
         <f t="shared" si="1"/>
         <v>0.24388727750724781</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>0.34144078985626625</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>-0.35995146756720015</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>446.89413450000001</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>0.24388727750724781</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <f t="shared" si="3"/>
         <v>0.34144078985626625</v>
       </c>
-      <c r="O12" s="2">
-        <f>((A12*$U$1)+$U$2)*10^6</f>
-        <v>-0.35995146756720015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R12" s="2">
+        <f>((A12*$X$1)+$X$2)*10^6</f>
+        <v>-0.35993537649392282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>452.82387560000001</v>
       </c>
@@ -4546,29 +4547,29 @@
         <f t="shared" si="1"/>
         <v>-1.9379568355252046</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>0.33696962295289556</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>-0.31975977118319987</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>452.82299799999998</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>-1.9379568355252046</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <f t="shared" si="3"/>
         <v>0.33696962295289556</v>
       </c>
-      <c r="O13" s="2">
-        <f>((A13*$U$1)+$U$2)*10^6</f>
-        <v>-0.31975977118319987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R13" s="2">
+        <f>((A13*$X$1)+$X$2)*10^6</f>
+        <v>-0.31974547681750654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>452.98301959999998</v>
       </c>
@@ -4588,29 +4589,29 @@
         <f t="shared" si="1"/>
         <v>2.0489816745556473</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>0.33685123679109719</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>-0.31868109315119997</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>452.98239139999998</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>2.0489816745556473</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <f t="shared" si="3"/>
         <v>0.33685123679109719</v>
       </c>
-      <c r="O14" s="2">
-        <f>((A14*$U$1)+$U$2)*10^6</f>
-        <v>-0.31868109315119997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R14" s="2">
+        <f>((A14*$X$1)+$X$2)*10^6</f>
+        <v>-0.31866684700613901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>460.90979759999999</v>
       </c>
@@ -4634,29 +4635,29 @@
         <f t="shared" si="1"/>
         <v>0.31465365626019837</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>0.26484642553042825</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>-0.26495339186719996</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>460.90972900000003</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>0.31465365626019837</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <f t="shared" si="3"/>
         <v>0.26484642553042825</v>
       </c>
-      <c r="O15" s="2">
-        <f>((A15*$U$1)+$U$2)*10^6</f>
-        <v>-0.26495339186719996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R15" s="2">
+        <f>((A15*$X$1)+$X$2)*10^6</f>
+        <v>-0.26494154753587268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>461.06894160000002</v>
       </c>
@@ -4683,29 +4684,29 @@
         <f t="shared" si="1"/>
         <v>-1.8584708830185748</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>0.2647550108018053</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>-0.26387471383519967</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>461.06808469999999</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>-1.8584708830185748</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <f t="shared" si="3"/>
         <v>0.2647550108018053</v>
       </c>
-      <c r="O16" s="2">
-        <f>((A16*$U$1)+$U$2)*10^6</f>
-        <v>-0.26387471383519967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="2">
+        <f>((A16*$X$1)+$X$2)*10^6</f>
+        <v>-0.26386291772450471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>466.8395256</v>
       </c>
@@ -4729,29 +4730,29 @@
         <f t="shared" si="1"/>
         <v>2.7791603461466523E-2</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>0.19611178913076552</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>-0.22476169548319971</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>466.83953860000003</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>2.7791603461466523E-2</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <f t="shared" si="3"/>
         <v>0.19611178913076552</v>
       </c>
-      <c r="O17" s="2">
-        <f>((A17*$U$1)+$U$2)*10^6</f>
-        <v>-0.22476169548319971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="2">
+        <f>((A17*$X$1)+$X$2)*10^6</f>
+        <v>-0.22475164785945678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>466.99866960000003</v>
       </c>
@@ -4775,29 +4776,29 @@
         <f t="shared" si="1"/>
         <v>-0.67997885149711024</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>0.19604495710029379</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>-0.22368301745119984</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>466.99835209999998</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>-0.67997885149711024</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <f t="shared" si="3"/>
         <v>0.19604495710029379</v>
       </c>
-      <c r="O18" s="2">
-        <f>((A18*$U$1)+$U$2)*10^6</f>
-        <v>-0.22368301745119984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <f>((A18*$X$1)+$X$2)*10^6</f>
+        <v>-0.22367301804808842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>474.92544759999998</v>
       </c>
@@ -4821,29 +4822,29 @@
         <f t="shared" si="1"/>
         <v>0.95956178871296094</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>0.1927728537732899</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>-0.16995531616719983</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>474.92590330000002</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0.95956178871296094</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <f t="shared" si="3"/>
         <v>0.1927728537732899</v>
       </c>
-      <c r="O19" s="2">
-        <f>((A19*$U$1)+$U$2)*10^6</f>
-        <v>-0.16995531616719983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="2">
+        <f>((A19*$X$1)+$X$2)*10^6</f>
+        <v>-0.16994771857782295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>480.8551756</v>
       </c>
@@ -4867,29 +4868,29 @@
         <f t="shared" si="1"/>
         <v>3.8456063138198292E-2</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>0.12693043448586899</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>-0.12976361978319997</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>480.85519410000001</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>3.8456063138198292E-2</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <f t="shared" si="3"/>
         <v>0.12693043448586899</v>
       </c>
-      <c r="O20" s="2">
-        <f>((A20*$U$1)+$U$2)*10^6</f>
-        <v>-0.12976361978319997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="2">
+        <f>((A20*$X$1)+$X$2)*10^6</f>
+        <v>-0.12975781890140664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>481.01431960000002</v>
       </c>
@@ -4913,29 +4914,29 @@
         <f t="shared" si="1"/>
         <v>0.55674505527909113</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <f t="shared" si="2"/>
         <v>0.12688843967915314</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>-0.12868494175119968</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>481.01458739999998</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>0.55674505527909113</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <f t="shared" si="3"/>
         <v>0.12688843967915314</v>
       </c>
-      <c r="O21" s="2">
-        <f>((A21*$U$1)+$U$2)*10^6</f>
-        <v>-0.12868494175119968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="2">
+        <f>((A21*$X$1)+$X$2)*10^6</f>
+        <v>-0.12867918909003867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>488.94109759999998</v>
       </c>
@@ -4959,29 +4960,29 @@
         <f t="shared" si="1"/>
         <v>7.1055982339242483E-3</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <f t="shared" si="2"/>
         <v>6.2415653955397145E-2</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>-7.4957240467200106E-2</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>488.94110110000003</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>7.1055982339242483E-3</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <f t="shared" si="3"/>
         <v>6.2415653955397145E-2</v>
       </c>
-      <c r="O22" s="2">
-        <f>((A22*$U$1)+$U$2)*10^6</f>
-        <v>-7.4957240467200106E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="2">
+        <f>((A22*$X$1)+$X$2)*10^6</f>
+        <v>-7.4953889619772784E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>494.87082559999999</v>
       </c>
@@ -5005,29 +5006,29 @@
         <f t="shared" si="1"/>
         <v>0.72686187057353935</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <f t="shared" si="2"/>
         <v>6.1667764896213395E-2</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>-3.4765544083199831E-2</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>494.87118529999998</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>0.72686187057353935</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <f t="shared" si="3"/>
         <v>6.1667764896213395E-2</v>
       </c>
-      <c r="O23" s="2">
-        <f>((A23*$U$1)+$U$2)*10^6</f>
-        <v>-3.4765544083199831E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="2">
+        <f>((A23*$X$1)+$X$2)*10^6</f>
+        <v>-3.4763989943356895E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>495.02996960000002</v>
       </c>
@@ -5051,29 +5052,29 @@
         <f t="shared" si="1"/>
         <v>-6.4351374560611643E-2</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <f t="shared" si="2"/>
         <v>6.164794133083136E-2</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>-3.3686866051199957E-2</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>495.0299377</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>-6.4351374560611643E-2</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <f t="shared" si="3"/>
         <v>6.164794133083136E-2</v>
       </c>
-      <c r="O24" s="2">
-        <f>((A24*$U$1)+$U$2)*10^6</f>
-        <v>-3.3686866051199957E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="2">
+        <f>((A24*$X$1)+$X$2)*10^6</f>
+        <v>-3.3685360131988522E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>500.8005536</v>
       </c>
@@ -5094,30 +5095,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <f t="shared" si="2"/>
         <v>-999999.29675799713</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>5.4261523008000152E-3</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>500.80020141601602</v>
       </c>
-      <c r="M25">
-        <f t="shared" ref="M25:M64" si="5">(L25-A25)/A25*10^6</f>
+      <c r="P25">
+        <f>(O25-A25)/A25*10^6</f>
         <v>-0.70324200212253618</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <f t="shared" si="3"/>
         <v>7.945357705096967E-10</v>
       </c>
-      <c r="O25" s="2">
-        <f>((A25*$U$1)+$U$2)*10^6</f>
-        <v>5.4261523008000152E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="2">
+        <f>((A25*$X$1)+$X$2)*10^6</f>
+        <v>5.4259097330594227E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>502.95674760000003</v>
       </c>
@@ -5138,30 +5139,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <f t="shared" si="2"/>
         <v>-999999.77517248516</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>2.0040835232800466E-2</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>502.95663452148398</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="5"/>
+      <c r="P26">
+        <f>(O26-A26)/A26*10^6</f>
         <v>-0.22482751566776268</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <f t="shared" si="3"/>
         <v>-7.9112968953687357E-10</v>
       </c>
-      <c r="O26" s="2">
-        <f t="shared" ref="O26:O73" si="6">((A26*$U$1)+$U$2)*10^6</f>
-        <v>2.0040835232800466E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="2">
+        <f t="shared" ref="R26:R73" si="5">((A26*$X$1)+$X$2)*10^6</f>
+        <v>2.0039939338277381E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>508.88647559999998</v>
       </c>
@@ -5182,30 +5183,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <f t="shared" si="2"/>
         <v>-999998.97857483337</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>6.0232531616799888E-2</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>508.88592529296898</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="5"/>
+      <c r="P27">
+        <f>(O27-A27)/A27*10^6</f>
         <v>-1.0813944905034514</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <f t="shared" si="3"/>
         <v>-5.9969323927591356E-2</v>
       </c>
-      <c r="O27" s="2">
-        <f t="shared" si="6"/>
-        <v>6.0232531616799888E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="2">
+        <f t="shared" si="5"/>
+        <v>6.0229839014693268E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>509.04561960000001</v>
       </c>
@@ -5226,30 +5227,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <f t="shared" si="2"/>
         <v>-1000000.847518128</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>6.1311209648800186E-2</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>509.04602050781199</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="5"/>
+      <c r="P28">
+        <f>(O28-A28)/A28*10^6</f>
         <v>0.78756755100721632</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <f t="shared" si="3"/>
         <v>-5.9950577043705655E-2</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="6"/>
-        <v>6.1311209648800186E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="2">
+        <f t="shared" si="5"/>
+        <v>6.1308468826061217E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>514.81620359999999</v>
       </c>
@@ -5270,30 +5271,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <f t="shared" si="2"/>
         <v>-1000000.037964095</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>0.10042422800080016</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>514.816162109375</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="5"/>
+      <c r="P29">
+        <f>(O29-A29)/A29*10^6</f>
         <v>-8.0593082937622892E-2</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <f t="shared" si="3"/>
         <v>-0.11855717792717899</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10042422800080016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10041973869110916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>516.97239760000002</v>
       </c>
@@ -5314,30 +5315,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <f t="shared" si="2"/>
         <v>-999998.96550176805</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>0.11503891093280019</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>516.97180175781205</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
+      <c r="P30">
+        <f>(O30-A30)/A30*10^6</f>
         <v>-1.1525609311888991</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <f t="shared" si="3"/>
         <v>-0.11806269926227908</v>
       </c>
-      <c r="O30" s="2">
-        <f t="shared" si="6"/>
-        <v>0.11503891093280019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11503376829632754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>522.90212559999998</v>
       </c>
@@ -5358,30 +5359,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <f t="shared" si="2"/>
         <v>-999999.71684770391</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>0.15523060731680002</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>522.90191650390602</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="5"/>
+      <c r="P31">
+        <f>(O31-A31)/A31*10^6</f>
         <v>-0.39987615983412816</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <f t="shared" si="3"/>
         <v>-0.11672386377725918</v>
       </c>
-      <c r="O31" s="2">
-        <f t="shared" si="6"/>
-        <v>0.15523060731680002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15522366797274301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>528.83185360000004</v>
       </c>
@@ -5402,30 +5403,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <f t="shared" si="2"/>
         <v>-999999.64343876741</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>0.1954223037008003</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>528.83154296875</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="5"/>
+      <c r="P32">
+        <f>(O32-A32)/A32*10^6</f>
         <v>-0.58739133796560472</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <f t="shared" si="3"/>
         <v>-0.23083010538985371</v>
       </c>
-      <c r="O32" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1954223037008003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19541356764915974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>530.98804759999996</v>
       </c>
@@ -5446,30 +5447,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <f t="shared" si="2"/>
         <v>-999999.86529681506</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>0.2100369866327999</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>530.98785400390602</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="5"/>
+      <c r="P33">
+        <f>(O33-A33)/A33*10^6</f>
         <v>-0.36459595429944525</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <f t="shared" si="3"/>
         <v>-0.22989276929888824</v>
       </c>
-      <c r="O33" s="2">
-        <f t="shared" si="6"/>
-        <v>0.2100369866327999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21002759725437686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>536.91777560000003</v>
       </c>
@@ -5490,30 +5491,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <f t="shared" si="2"/>
         <v>-999999.33664627536</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>0.25022868301680018</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>536.91729736328102</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="5"/>
+      <c r="P34">
+        <f>(O34-A34)/A34*10^6</f>
         <v>-0.89070755474648666</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <f t="shared" si="3"/>
         <v>-0.2273538300924407</v>
       </c>
-      <c r="O34" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25022868301680018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25021749693079359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>542.84750359999998</v>
       </c>
@@ -5534,30 +5535,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <f t="shared" si="2"/>
         <v>-999999.60659128753</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>0.29042037940080001</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>542.84710693359398</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="5"/>
+      <c r="P35">
+        <f>(O35-A35)/A35*10^6</f>
         <v>-0.73071424916550409</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <f t="shared" si="3"/>
         <v>-0.3373055366531601</v>
       </c>
-      <c r="O35" s="2">
-        <f t="shared" si="6"/>
-        <v>0.29042037940080001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29040739660720905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>545.00369760000001</v>
       </c>
@@ -5578,30 +5579,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <f t="shared" si="2"/>
         <v>-1000000.6068221444</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>0.30503506233280003</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>545.00384521484398</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="5"/>
+      <c r="P36">
+        <f>(O36-A36)/A36*10^6</f>
         <v>0.27085108709885963</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <f t="shared" si="3"/>
         <v>-0.33597105731384336</v>
       </c>
-      <c r="O36" s="2">
-        <f t="shared" si="6"/>
-        <v>0.30503506233280003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.30502142621242745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>550.93342559999996</v>
       </c>
@@ -5622,30 +5623,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <f t="shared" si="2"/>
         <v>-1000000.4159942847</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>0.34522675871679992</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>550.93347167968795</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="5"/>
+      <c r="P37">
+        <f>(O37-A37)/A37*10^6</f>
         <v>8.3639303497437145E-2</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <f t="shared" si="3"/>
         <v>-0.33235498117733486</v>
       </c>
-      <c r="O37" s="2">
-        <f t="shared" si="6"/>
-        <v>0.34522675871679992</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3452113258888429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>556.86315360000003</v>
       </c>
@@ -5666,30 +5667,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <f t="shared" si="2"/>
         <v>-1000000.3388357714</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>0.38541845510080019</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>556.86309814453102</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="5"/>
+      <c r="P38">
+        <f>(O38-A38)/A38*10^6</f>
         <v>-9.9585452280780085E-2</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <f t="shared" si="3"/>
         <v>-0.43842122368674807</v>
       </c>
-      <c r="O38" s="2">
-        <f t="shared" si="6"/>
-        <v>0.38541845510080019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.38540122556525963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>559.01934759999995</v>
       </c>
@@ -5713,30 +5714,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <f t="shared" si="2"/>
         <v>-999997.27141040552</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>0.40003313803279977</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>559.017578125</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="5"/>
+      <c r="P39">
+        <f>(O39-A39)/A39*10^6</f>
         <v>-3.1653197828360757</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <f t="shared" si="3"/>
         <v>-0.4367301884060959</v>
       </c>
-      <c r="O39" s="2">
-        <f t="shared" si="6"/>
-        <v>0.40003313803279977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.40001525517047676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>562.79288159999999</v>
       </c>
@@ -5757,30 +5758,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <f t="shared" si="2"/>
         <v>-999999.93795175164</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>0.42561015148480003</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>562.79260253906205</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="5"/>
+      <c r="P40">
+        <f>(O40-A40)/A40*10^6</f>
         <v>-0.49585015565293167</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <f t="shared" si="3"/>
         <v>-0.43380190730320595</v>
       </c>
-      <c r="O40" s="2">
-        <f t="shared" si="6"/>
-        <v>0.42561015148480003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="2">
+        <f t="shared" si="5"/>
+        <v>0.42559112524167514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>564.94907560000001</v>
       </c>
@@ -5801,30 +5802,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <f t="shared" si="2"/>
         <v>-999999.92927598173</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>0.44022483441680005</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>564.94879150390602</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="5"/>
+      <c r="P41">
+        <f>(O41-A41)/A41*10^6</f>
         <v>-0.50287026966160742</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <f t="shared" si="3"/>
         <v>-0.43214625135563933</v>
       </c>
-      <c r="O41" s="2">
-        <f t="shared" si="6"/>
-        <v>0.44022483441680005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44020515484689349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>570.87880359999997</v>
       </c>
@@ -5845,30 +5846,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <f t="shared" si="2"/>
         <v>-999999.43140979891</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>0.48041653080080032</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>570.87823486328102</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="5"/>
+      <c r="P42">
+        <f>(O42-A42)/A42*10^6</f>
         <v>-0.99624774183267395</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <f t="shared" si="3"/>
         <v>-0.42765754077363993</v>
       </c>
-      <c r="O42" s="2">
-        <f t="shared" si="6"/>
-        <v>0.48041653080080032</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="2">
+        <f t="shared" si="5"/>
+        <v>0.48039505452330938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>576.80853160000004</v>
       </c>
@@ -5889,30 +5890,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <f t="shared" si="2"/>
         <v>-1000000.2135633394</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>0.5206082271848006</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>576.808349609375</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="5"/>
+      <c r="P43">
+        <f>(O43-A43)/A43*10^6</f>
         <v>-0.31551306034382254</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <f t="shared" si="3"/>
         <v>-0.52907639976038157</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="6"/>
-        <v>0.5206082271848006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="2">
+        <f t="shared" si="5"/>
+        <v>0.52058495419972528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>578.96472559999995</v>
       </c>
@@ -5933,30 +5934,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <f t="shared" si="2"/>
         <v>-999999.78238635382</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>0.53522291011679979</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>578.96429443359398</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="5"/>
+      <c r="P44">
+        <f>(O44-A44)/A44*10^6</f>
         <v>-0.74471964682710123</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <f t="shared" si="3"/>
         <v>-0.52710600063995727</v>
       </c>
-      <c r="O44" s="2">
-        <f t="shared" si="6"/>
-        <v>0.53522291011679979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5351989838049428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>584.89445360000002</v>
       </c>
@@ -5977,30 +5978,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <f t="shared" si="2"/>
         <v>-1000000.1327589953</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>0.57541460650080001</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>584.89416503906205</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="5"/>
+      <c r="P45">
+        <f>(O45-A45)/A45*10^6</f>
         <v>-0.49335557244302808</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <f t="shared" si="3"/>
         <v>-0.62611456768094609</v>
       </c>
-      <c r="O45" s="2">
-        <f t="shared" si="6"/>
-        <v>0.57541460650080001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="2">
+        <f t="shared" si="5"/>
+        <v>0.57538888348135953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>590.82418159999997</v>
       </c>
@@ -6021,30 +6022,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <f t="shared" si="2"/>
         <v>-1000000.062878266</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>0.61560630288480034</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>590.82385253906205</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="5"/>
+      <c r="P46">
+        <f>(O46-A46)/A46*10^6</f>
         <v>-0.55695238647485135</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <f t="shared" si="3"/>
         <v>-0.61983065243372126</v>
       </c>
-      <c r="O46" s="2">
-        <f t="shared" si="6"/>
-        <v>0.61560630288480034</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="2">
+        <f t="shared" si="5"/>
+        <v>0.61557878315777548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>592.9803756</v>
       </c>
@@ -6065,30 +6066,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <f t="shared" si="2"/>
         <v>-1000000.1570878293</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>0.63022098581680031</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>592.98010253906205</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="5"/>
+      <c r="P47">
+        <f>(O47-A47)/A47*10^6</f>
         <v>-0.46048899625148149</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <f t="shared" si="3"/>
         <v>-0.61757682551332549</v>
       </c>
-      <c r="O47" s="2">
-        <f t="shared" si="6"/>
-        <v>0.63022098581680031</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="2">
+        <f t="shared" si="5"/>
+        <v>0.63019281276299299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>598.91010359999996</v>
       </c>
@@ -6109,30 +6110,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <f t="shared" si="2"/>
         <v>-1000000.4955512076</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>0.67041268220079975</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>598.90997314453102</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="5"/>
+      <c r="P48">
+        <f>(O48-A48)/A48*10^6</f>
         <v>-0.21782145291911145</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <f t="shared" si="3"/>
         <v>-0.71337266045310044</v>
       </c>
-      <c r="O48" s="2">
-        <f t="shared" si="6"/>
-        <v>0.67041268220079975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="2">
+        <f t="shared" si="5"/>
+        <v>0.67038271243940883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>604.83983160000002</v>
       </c>
@@ -6153,30 +6154,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <f t="shared" si="2"/>
         <v>-999999.81826542038</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>0.71060437858480008</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>604.83929443359398</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="5"/>
+      <c r="P49">
+        <f>(O49-A49)/A49*10^6</f>
         <v>-0.88811347729304835</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <f t="shared" si="3"/>
         <v>-0.70637889768671536</v>
       </c>
-      <c r="O49" s="2">
-        <f t="shared" si="6"/>
-        <v>0.71060437858480008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.71057261211582556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>612.76660960000004</v>
       </c>
@@ -6197,30 +6198,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <f t="shared" si="2"/>
         <v>-999998.69200684445</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>0.76433207986880047</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>612.76531982421898</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="5"/>
+      <c r="P50">
+        <f>(O50-A50)/A50*10^6</f>
         <v>-2.1048401803462071</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <f t="shared" si="3"/>
         <v>-0.79684702482624714</v>
       </c>
-      <c r="O50" s="2">
-        <f t="shared" si="6"/>
-        <v>0.76433207986880047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.76429791158609106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>612.92575360000001</v>
       </c>
@@ -6241,30 +6242,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <f t="shared" si="2"/>
         <v>-1000000.543011579</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>0.76541075790080038</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>612.92559814453102</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="5"/>
+      <c r="P51">
+        <f>(O51-A51)/A51*10^6</f>
         <v>-0.25362854810977137</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <f t="shared" si="3"/>
         <v>-0.79664012706183329</v>
       </c>
-      <c r="O51" s="2">
-        <f t="shared" si="6"/>
-        <v>0.76541075790080038</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.76537654139745903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>618.85548159999996</v>
       </c>
@@ -6285,30 +6286,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <f t="shared" si="2"/>
         <v>-999999.97923586308</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>0.80560245428479971</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>618.85498046875</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="5"/>
+      <c r="P52">
+        <f>(O52-A52)/A52*10^6</f>
         <v>-0.80977104487503104</v>
       </c>
-      <c r="N52">
+      <c r="Q52">
         <f t="shared" si="3"/>
         <v>-0.78900690794172001</v>
       </c>
-      <c r="O52" s="2">
-        <f t="shared" si="6"/>
-        <v>0.80560245428479971</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.80556644107387487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>626.78225959999997</v>
       </c>
@@ -6329,30 +6330,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <f t="shared" si="2"/>
         <v>-999999.94729030784</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>0.85933015556880021</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>626.78167724609398</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="5"/>
+      <c r="P53">
+        <f>(O53-A53)/A53*10^6</f>
         <v>-0.92911676595493609</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <f t="shared" si="3"/>
         <v>-0.87640707376304683</v>
       </c>
-      <c r="O53" s="2">
-        <f t="shared" si="6"/>
-        <v>0.85933015556880021</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85929174054414126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>626.94140359999994</v>
       </c>
@@ -6373,30 +6374,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <f t="shared" si="2"/>
         <v>-1000000.2962884054</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>0.86040883360080012</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>626.94104003906205</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="5"/>
+      <c r="P54">
+        <f>(O54-A54)/A54*10^6</f>
         <v>-0.57989620052413815</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <f t="shared" si="3"/>
         <v>-0.87618460601019921</v>
       </c>
-      <c r="O54" s="2">
-        <f t="shared" si="6"/>
-        <v>0.86040883360080012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86037037035550923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>632.87113160000001</v>
       </c>
@@ -6417,30 +6418,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <f t="shared" si="2"/>
         <v>-1000000.2295182408</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>0.90060052998480034</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>632.87072753906205</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="5"/>
+      <c r="P55">
+        <f>(O55-A55)/A55*10^6</f>
         <v>-0.63845689555416563</v>
       </c>
-      <c r="N55">
+      <c r="Q55">
         <f t="shared" si="3"/>
         <v>-0.8679751362903646</v>
       </c>
-      <c r="O55" s="2">
-        <f t="shared" si="6"/>
-        <v>0.90060052998480034</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="2">
+        <f t="shared" si="5"/>
+        <v>0.90056027003192507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>640.79790960000003</v>
       </c>
@@ -6461,30 +6462,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <f t="shared" si="2"/>
         <v>-999999.81418064178</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>0.95432823126880073</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>640.79718017578102</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="5"/>
+      <c r="P56">
+        <f>(O56-A56)/A56*10^6</f>
         <v>-1.1383061774625902</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <f t="shared" si="3"/>
         <v>-0.95248681929747325</v>
       </c>
-      <c r="O56" s="2">
-        <f t="shared" si="6"/>
-        <v>0.95432823126880073</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="2">
+        <f t="shared" si="5"/>
+        <v>0.95428556950219146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>646.88678159999995</v>
       </c>
@@ -6508,30 +6509,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <f t="shared" si="2"/>
         <v>-1000001.3181245436</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>0.99559860568480008</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>646.886962890625</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="5"/>
+      <c r="P57">
+        <f>(O57-A57)/A57*10^6</f>
         <v>0.28025093448698551</v>
       </c>
-      <c r="N57">
+      <c r="Q57">
         <f t="shared" si="3"/>
         <v>-1.0378736091799545</v>
       </c>
-      <c r="O57" s="2">
-        <f t="shared" si="6"/>
-        <v>0.99559860568480008</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99555409898997527</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>654.81355959999996</v>
       </c>
@@ -6552,30 +6553,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <f t="shared" si="2"/>
         <v>-999999.96639907127</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>1.0493263069687997</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>654.81286621093795</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="5"/>
+      <c r="P58">
+        <f>(O58-A58)/A58*10^6</f>
         <v>-1.0589106652451099</v>
       </c>
-      <c r="N58">
+      <c r="Q58">
         <f t="shared" si="3"/>
         <v>-1.0253097365689503</v>
       </c>
-      <c r="O58" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0493263069687997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0492793984602407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>660.74328760000003</v>
       </c>
@@ -6596,30 +6597,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <f t="shared" si="2"/>
         <v>-1000000.4596468847</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>1.0895180033528007</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>660.74285888671898</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="5"/>
+      <c r="P59">
+        <f>(O59-A59)/A59*10^6</f>
         <v>-0.64883486385523403</v>
       </c>
-      <c r="N59">
+      <c r="Q59">
         <f t="shared" si="3"/>
         <v>-1.1084817485365339</v>
       </c>
-      <c r="O59" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0895180033528007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0894692981366574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>668.82920960000001</v>
       </c>
@@ -6640,30 +6641,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <f t="shared" si="2"/>
         <v>-1000000.2947513034</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>1.1443243826688001</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>668.82861328125</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="5"/>
+      <c r="P60">
+        <f>(O60-A60)/A60*10^6</f>
         <v>-0.89158598556050517</v>
       </c>
-      <c r="N60">
+      <c r="Q60">
         <f t="shared" si="3"/>
         <v>-1.1863372888940282</v>
       </c>
-      <c r="O60" s="2">
-        <f t="shared" si="6"/>
-        <v>1.1443243826688001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="2">
+        <f t="shared" si="5"/>
+        <v>1.144273227418291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>674.75893759999997</v>
       </c>
@@ -6684,30 +6685,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <f t="shared" si="2"/>
         <v>-999999.96077534358</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>1.1845160790527995</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>674.75811767578102</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="5"/>
+      <c r="P61">
+        <f>(O61-A61)/A61*10^6</f>
         <v>-1.2151365076558478</v>
       </c>
-      <c r="N61">
+      <c r="Q61">
         <f t="shared" si="3"/>
         <v>-1.1759118512747118</v>
       </c>
-      <c r="O61" s="2">
-        <f t="shared" si="6"/>
-        <v>1.1845160790527995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1844631270947068</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>682.84485959999995</v>
       </c>
@@ -6728,30 +6729,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I62">
+      <c r="L62">
         <f t="shared" si="2"/>
         <v>-999999.89455534052</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>1.2393224583687998</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>682.84393310546898</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="5"/>
+      <c r="P62">
+        <f>(O62-A62)/A62*10^6</f>
         <v>-1.3568155605873689</v>
       </c>
-      <c r="N62">
+      <c r="Q62">
         <f t="shared" si="3"/>
         <v>-1.2513709011050838</v>
       </c>
-      <c r="O62" s="2">
-        <f t="shared" si="6"/>
-        <v>1.2393224583687998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="2">
+        <f t="shared" si="5"/>
+        <v>1.239267056376341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>688.77458760000002</v>
       </c>
@@ -6772,30 +6773,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <f t="shared" si="2"/>
         <v>-1000000.0138912917</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>1.2795141547528002</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>688.77374267578102</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="5"/>
+      <c r="P63">
+        <f>(O63-A63)/A63*10^6</f>
         <v>-1.226706435177142</v>
       </c>
-      <c r="N63">
+      <c r="Q63">
         <f t="shared" si="3"/>
         <v>-1.2405977269062847</v>
       </c>
-      <c r="O63" s="2">
-        <f t="shared" si="6"/>
-        <v>1.2795141547528002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2794569560527569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>696.8605096</v>
       </c>
@@ -6816,30 +6817,30 @@
         <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <f t="shared" si="2"/>
         <v>-999999.94838681922</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>1.3343205340688005</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>696.85955810546898</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="5"/>
+      <c r="P64">
+        <f>(O64-A64)/A64*10^6</f>
         <v>-1.3654017094025113</v>
       </c>
-      <c r="N64">
+      <c r="Q64">
         <f t="shared" si="3"/>
         <v>-1.3137885285652675</v>
       </c>
-      <c r="O64" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3343205340688005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3342608853343911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>702.79023759999995</v>
       </c>
@@ -6853,37 +6854,37 @@
         <v>-0.108805136104397</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F73" si="7">E65-C65</f>
+        <f t="shared" ref="F65:F73" si="6">E65-C65</f>
         <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" ref="H65:H73" si="8">(G65-A65)/A65*10^6</f>
+        <f t="shared" ref="H65:H73" si="7">(G65-A65)/A65*10^6</f>
         <v>-1000000</v>
       </c>
-      <c r="I65">
-        <f t="shared" ref="I65:I73" si="9">H65-C65</f>
+      <c r="L65">
+        <f t="shared" ref="L65:L73" si="8">H65-C65</f>
         <v>-999999.89119486394</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>1.3745122304527999</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>702.78918457031205</v>
       </c>
-      <c r="M65">
-        <f t="shared" ref="M65:M73" si="10">(L65-A65)/A65*10^6</f>
+      <c r="P65">
+        <f t="shared" ref="P65:P73" si="9">(O65-A65)/A65*10^6</f>
         <v>-1.4983555996817917</v>
       </c>
-      <c r="N65">
-        <f t="shared" ref="N65:N73" si="11">M65-C65</f>
+      <c r="Q65">
+        <f t="shared" ref="Q65:Q73" si="10">P65-C65</f>
         <v>-1.3895504635773948</v>
       </c>
-      <c r="O65" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3745122304527999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3744507850108072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>716.80588760000001</v>
       </c>
@@ -6897,37 +6898,37 @@
         <v>-5.6405830302051999E-2</v>
       </c>
       <c r="F66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H66">
+        <v>-1000000</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I66">
+        <v>-999999.94359416969</v>
+      </c>
+      <c r="M66">
+        <v>1.4695103061528005</v>
+      </c>
+      <c r="O66">
+        <v>716.80480957031205</v>
+      </c>
+      <c r="P66">
         <f t="shared" si="9"/>
-        <v>-999999.94359416969</v>
-      </c>
-      <c r="J66">
-        <v>1.4695103061528005</v>
-      </c>
-      <c r="L66">
-        <v>716.80480957031205</v>
-      </c>
-      <c r="M66">
+        <v>-1.5039353144401051</v>
+      </c>
+      <c r="Q66">
         <f t="shared" si="10"/>
-        <v>-1.5039353144401051</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="11"/>
         <v>-1.447529484138053</v>
       </c>
-      <c r="O66" s="2">
-        <f t="shared" si="6"/>
-        <v>1.4695103061528005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4694446139688573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>722.73561559999996</v>
       </c>
@@ -6941,37 +6942,37 @@
         <v>0.73252171314460401</v>
       </c>
       <c r="F67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H67">
+        <v>-1000000</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I67">
+        <v>-1000000.7325217131</v>
+      </c>
+      <c r="M67">
+        <v>1.5097020025368</v>
+      </c>
+      <c r="O67">
+        <v>722.73504638671898</v>
+      </c>
+      <c r="P67">
         <f t="shared" si="9"/>
-        <v>-1000000.7325217131</v>
-      </c>
-      <c r="J67">
-        <v>1.5097020025368</v>
-      </c>
-      <c r="L67">
-        <v>722.73504638671898</v>
-      </c>
-      <c r="M67">
+        <v>-0.78758161172138375</v>
+      </c>
+      <c r="Q67">
         <f t="shared" si="10"/>
-        <v>-0.78758161172138375</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="11"/>
         <v>-1.5201033248659876</v>
       </c>
-      <c r="O67" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5097020025368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5096345136452731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>730.82153760000006</v>
       </c>
@@ -6985,37 +6986,37 @@
         <v>-0.25656379041838101</v>
       </c>
       <c r="F68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H68">
+        <v>-1000000</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I68">
+        <v>-999999.74343620962</v>
+      </c>
+      <c r="M68">
+        <v>1.5645083818528003</v>
+      </c>
+      <c r="O68">
+        <v>730.82019042968795</v>
+      </c>
+      <c r="P68">
         <f t="shared" si="9"/>
-        <v>-999999.74343620962</v>
-      </c>
-      <c r="J68">
-        <v>1.5645083818528003</v>
-      </c>
-      <c r="L68">
-        <v>730.82019042968795</v>
-      </c>
-      <c r="M68">
+        <v>-1.8433642726586468</v>
+      </c>
+      <c r="Q68">
         <f t="shared" si="10"/>
-        <v>-1.8433642726586468</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="11"/>
         <v>-1.5868004822402657</v>
       </c>
-      <c r="O68" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5645083818528003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5644384429269074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>736.75126560000001</v>
       </c>
@@ -7029,37 +7030,37 @@
         <v>-0.226626264937136</v>
       </c>
       <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H69">
+        <v>-1000000</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I69">
+        <v>-999999.77337373502</v>
+      </c>
+      <c r="M69">
+        <v>1.6047000782368004</v>
+      </c>
+      <c r="O69">
+        <v>736.74993896484398</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="9"/>
-        <v>-999999.77337373502</v>
-      </c>
-      <c r="J69">
-        <v>1.6047000782368004</v>
-      </c>
-      <c r="L69">
-        <v>736.74993896484398</v>
-      </c>
-      <c r="M69">
+        <v>-1.8006554151662963</v>
+      </c>
+      <c r="Q69">
         <f t="shared" si="10"/>
-        <v>-1.8006554151662963</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="11"/>
         <v>-1.5740291502291603</v>
       </c>
-      <c r="O69" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6047000782368004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6046283426033232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>750.76691559999995</v>
       </c>
@@ -7073,37 +7074,37 @@
         <v>-0.25569478816751001</v>
       </c>
       <c r="F70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H70">
+        <v>-1000000</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I70">
+        <v>-999999.74430521182</v>
+      </c>
+      <c r="M70">
+        <v>1.6996981539368001</v>
+      </c>
+      <c r="O70">
+        <v>750.76544189453102</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="9"/>
-        <v>-999999.74430521182</v>
-      </c>
-      <c r="J70">
-        <v>1.6996981539368001</v>
-      </c>
-      <c r="L70">
-        <v>750.76544189453102</v>
-      </c>
-      <c r="M70">
+        <v>-1.9629334195515671</v>
+      </c>
+      <c r="Q70">
         <f t="shared" si="10"/>
-        <v>-1.9629334195515671</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="11"/>
         <v>-1.7072386313840571</v>
       </c>
-      <c r="O70" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6996981539368001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6996221715613726</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>764.7825656</v>
       </c>
@@ -7117,37 +7118,37 @@
         <v>-0.28369787343134101</v>
       </c>
       <c r="F71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H71">
+        <v>-1000000</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I71">
+        <v>-999999.71630212653</v>
+      </c>
+      <c r="M71">
+        <v>1.7946962296367999</v>
+      </c>
+      <c r="O71">
+        <v>764.78094482421898</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="9"/>
-        <v>-999999.71630212653</v>
-      </c>
-      <c r="J71">
-        <v>1.7946962296367999</v>
-      </c>
-      <c r="L71">
-        <v>764.78094482421898</v>
-      </c>
-      <c r="M71">
+        <v>-2.119263505633334</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="10"/>
-        <v>-2.119263505633334</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="11"/>
         <v>-1.8355656322019929</v>
       </c>
-      <c r="O71" s="2">
-        <f t="shared" si="6"/>
-        <v>1.7946962296367999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7946160005194227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>784.7279436</v>
       </c>
@@ -7161,37 +7162,37 @@
         <v>0.34005316227502402</v>
       </c>
       <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H72">
+        <v>-1000000</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I72">
+        <v>-1000000.3400531623</v>
+      </c>
+      <c r="M72">
+        <v>1.9298860017207999</v>
+      </c>
+      <c r="O72">
+        <v>784.72668457031205</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="9"/>
-        <v>-1000000.3400531623</v>
-      </c>
-      <c r="J72">
-        <v>1.9298860017207999</v>
-      </c>
-      <c r="L72">
-        <v>784.72668457031205</v>
-      </c>
-      <c r="M72">
+        <v>-1.6044155152448061</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="10"/>
-        <v>-1.6044155152448061</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="11"/>
         <v>-1.9444686775198301</v>
       </c>
-      <c r="O72" s="2">
-        <f t="shared" si="6"/>
-        <v>1.9298860017207999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9297997291538889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>798.74359360000005</v>
       </c>
@@ -7205,37 +7206,37 @@
         <v>-0.91983621175902197</v>
       </c>
       <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H73">
+        <v>-1000000</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="8"/>
-        <v>-1000000</v>
-      </c>
-      <c r="I73">
+        <v>-999999.08016378828</v>
+      </c>
+      <c r="M73">
+        <v>2.0248840774208006</v>
+      </c>
+      <c r="O73">
+        <v>798.74127197265602</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="9"/>
-        <v>-999999.08016378828</v>
-      </c>
-      <c r="J73">
-        <v>2.0248840774208006</v>
-      </c>
-      <c r="L73">
-        <v>798.74127197265602</v>
-      </c>
-      <c r="M73">
+        <v>-2.9065990170480474</v>
+      </c>
+      <c r="Q73">
         <f t="shared" si="10"/>
-        <v>-2.9065990170480474</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="11"/>
         <v>-1.9867628052890254</v>
       </c>
-      <c r="O73" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0248840774208006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0247935581119401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>646.72763759999998</v>
       </c>
@@ -7256,30 +7257,30 @@
         <f>(G94-A94)/A94*10^6</f>
         <v>-1000000</v>
       </c>
-      <c r="I94">
+      <c r="L94">
         <f>H94-C94</f>
         <v>-1000001.5463933415</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>0.99451992765280017</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <v>646.72796630859398</v>
       </c>
-      <c r="M94">
-        <f>(L94-A94)/A94*10^6</f>
+      <c r="P94">
+        <f>(O94-A94)/A94*10^6</f>
         <v>0.50826433708198493</v>
       </c>
-      <c r="N94">
-        <f>M94-C94</f>
+      <c r="Q94">
+        <f>P94-C94</f>
         <v>-1.0381290043736753</v>
       </c>
-      <c r="O94" s="2">
-        <f>((A94*$U$1)+$U$2)*10^6</f>
-        <v>0.99451992765280017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="2">
+        <f>((A94*$X$1)+$X$2)*10^6</f>
+        <v>0.9944754691786073</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>660.9024316</v>
       </c>
@@ -7300,27 +7301,27 @@
         <f>(G95-A95)/A95*10^6</f>
         <v>-1000000</v>
       </c>
-      <c r="I95">
+      <c r="L95">
         <f>H95-C95</f>
         <v>-999998.29710468231</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>1.0905966813847998</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <v>660.90057373046898</v>
       </c>
-      <c r="M95">
-        <f>(L95-A95)/A95*10^6</f>
+      <c r="P95">
+        <f>(O95-A95)/A95*10^6</f>
         <v>-2.811110146053994</v>
       </c>
-      <c r="N95">
-        <f>M95-C95</f>
+      <c r="Q95">
+        <f>P95-C95</f>
         <v>-1.1082148283211539</v>
       </c>
-      <c r="O95" s="2">
-        <f>((A95*$U$1)+$U$2)*10^6</f>
-        <v>1.0905966813847998</v>
+      <c r="R95" s="2">
+        <f>((A95*$X$1)+$X$2)*10^6</f>
+        <v>1.0905479279480255</v>
       </c>
     </row>
   </sheetData>
